--- a/src/main/resources/db/数据库设计.xlsx
+++ b/src/main/resources/db/数据库设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16260" tabRatio="914" firstSheet="13" activeTab="26"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16260" tabRatio="914" firstSheet="29" activeTab="40"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -13958,7 +13958,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -22092,7 +22092,7 @@
   <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -22698,8 +22698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -23272,7 +23272,7 @@
   <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>

--- a/src/main/resources/db/数据库设计.xlsx
+++ b/src/main/resources/db/数据库设计.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16260" tabRatio="914" firstSheet="29" activeTab="40"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="24240" windowHeight="13740" tabRatio="914" firstSheet="22" activeTab="33"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -35,23 +35,24 @@
     <sheet name="实验详细流程表" sheetId="21" r:id="rId26"/>
     <sheet name="实验评论表" sheetId="22" r:id="rId27"/>
     <sheet name="实验评论详细分类表" sheetId="23" r:id="rId28"/>
-    <sheet name="实验评论项表" sheetId="44" r:id="rId29"/>
-    <sheet name="实验评论附件表" sheetId="24" r:id="rId30"/>
-    <sheet name="我的说明书表" sheetId="38" r:id="rId31"/>
-    <sheet name="我的实验耗材表" sheetId="31" r:id="rId32"/>
-    <sheet name="我的实验主表" sheetId="25" r:id="rId33"/>
-    <sheet name="我的实验试剂表" sheetId="26" r:id="rId34"/>
-    <sheet name="我的实验设备表" sheetId="32" r:id="rId35"/>
-    <sheet name="我的实验步骤表" sheetId="33" r:id="rId36"/>
-    <sheet name="我的实验步骤附件表" sheetId="34" r:id="rId37"/>
-    <sheet name="我的实验计划表" sheetId="37" r:id="rId38"/>
-    <sheet name="BBS模块表" sheetId="39" r:id="rId39"/>
-    <sheet name="BBS主题表" sheetId="40" r:id="rId40"/>
-    <sheet name="BBS主题附件表" sheetId="41" r:id="rId41"/>
-    <sheet name="BBS评论表" sheetId="42" r:id="rId42"/>
-    <sheet name="BBS评论附件表" sheetId="43" r:id="rId43"/>
+    <sheet name="实验评论低分项明细表" sheetId="45" r:id="rId29"/>
+    <sheet name="实验评论项表" sheetId="44" r:id="rId30"/>
+    <sheet name="实验评论附件表" sheetId="24" r:id="rId31"/>
+    <sheet name="我的说明书表" sheetId="38" r:id="rId32"/>
+    <sheet name="我的实验耗材表" sheetId="31" r:id="rId33"/>
+    <sheet name="我的实验主表" sheetId="25" r:id="rId34"/>
+    <sheet name="我的实验试剂表" sheetId="26" r:id="rId35"/>
+    <sheet name="我的实验设备表" sheetId="32" r:id="rId36"/>
+    <sheet name="我的实验步骤表" sheetId="33" r:id="rId37"/>
+    <sheet name="我的实验步骤附件表" sheetId="34" r:id="rId38"/>
+    <sheet name="我的实验计划表" sheetId="37" r:id="rId39"/>
+    <sheet name="BBS模块表" sheetId="39" r:id="rId40"/>
+    <sheet name="BBS主题表" sheetId="40" r:id="rId41"/>
+    <sheet name="BBS主题附件表" sheetId="41" r:id="rId42"/>
+    <sheet name="BBS评论表" sheetId="42" r:id="rId43"/>
+    <sheet name="BBS评论附件表" sheetId="43" r:id="rId44"/>
   </sheets>
-  <calcPr calcId="125725" iterate="1" concurrentCalc="0"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -61,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2258" uniqueCount="729">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2365" uniqueCount="764">
   <si>
     <t>seq</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -742,10 +743,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>试剂名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>t_Equipment</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -946,6 +943,14 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>LevelTwoSortID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelTwoSortName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>试剂一级分类ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1142,23 +1147,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>试剂ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>Number</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ReagentID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>试剂名称</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Varchar</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReagentName</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1476,6 +1477,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>实验说明书ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>ReviewerID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1585,6 +1590,10 @@
   </si>
   <si>
     <t>评论项ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReviewOptScore</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2360,6 +2369,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>唯一ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>实验版本</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2520,10 +2533,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ExpReagentID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ExpConsumableID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2927,6 +2936,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>0-不允许下载，1-允许下载，2 share</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>说明书提供者</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2967,6 +2980,10 @@
   </si>
   <si>
     <t>是否允许下载</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReviewOptID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -3065,30 +3082,274 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>0-不允许下载，1-允许下载，2-share</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ExpReviewOptScore</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>实验说明书ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LevelTwoSortName</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>实验说明书ID</t>
+    <t>实验评论低分项明细表</t>
+    <rPh sb="4" eb="5">
+      <t>di fen xiang</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ming xi</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExpReviewDetailofOptID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯一ID</t>
+    <rPh sb="0" eb="1">
+      <t>wei yi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论明细ID</t>
+    <rPh sb="0" eb="1">
+      <t>ping lun</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ming xi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目ID</t>
+    <rPh sb="0" eb="1">
+      <t>xiang mu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>明细项ID，对应试剂ID，耗材ID，设备ID</t>
+    <rPh sb="6" eb="7">
+      <t>dui ying</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shi ji</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>hao cai</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>she bei</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目名称</t>
+    <rPh sb="0" eb="1">
+      <t>xiang mu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ming cheng</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>明细项描述，对应试剂名称、耗材名称、设备名称</t>
+    <rPh sb="0" eb="1">
+      <t>ming xi xiang</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>miao shu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>dui ying</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shi ji</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ming cheng</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>hao cai</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ming cheng</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>she bei</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ming cheng</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SupplierID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商ID</t>
+    <rPh sb="0" eb="1">
+      <t>gong ying shang</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商名称</t>
+    <rPh sb="0" eb="1">
+      <t>gong ying</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shang</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ming cheng</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商名称</t>
+    <rPh sb="0" eb="1">
+      <t>gong ying shang</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ming cheng</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemScore</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>明细项得分</t>
+    <rPh sb="0" eb="1">
+      <t>ming xi xiang</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>de fen</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>明细项得分，0-正常，1-低分</t>
+    <rPh sb="0" eb="1">
+      <t>ming xi xiang</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zheng chang</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>di fen</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_ExpReviewDetailofOpt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验评论低分项明细表</t>
+    <rPh sb="0" eb="1">
+      <t>shi yan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ping lun</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>di fen xiang</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ming xi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>biao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Desc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <rPh sb="0" eb="1">
+      <t>miao shu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述，可选项</t>
+    <rPh sb="0" eb="1">
+      <t>miao shu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ke xuan xiang</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_ExpReviewDetailOfOpt</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExpReviewOptID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExpReagentID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExpInstructionID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReagentID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReagentName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>试剂ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>试剂名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProjectName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResearchName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究课题名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TaskName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究任务名称</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="21">
     <font>
       <sz val="11"/>
@@ -3536,7 +3797,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3676,6 +3937,9 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3978,14 +4242,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:F46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.375" customWidth="1"/>
     <col min="2" max="2" width="4.125" bestFit="1" customWidth="1"/>
@@ -3995,7 +4259,7 @@
     <col min="6" max="6" width="44.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="15" thickBot="1"/>
+    <row r="2" spans="2:6" ht="14.25" thickBot="1"/>
     <row r="3" spans="2:6" ht="16.5" thickBot="1">
       <c r="B3" s="1" t="s">
         <v>0</v>
@@ -4013,7 +4277,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:6">
+    <row r="4" spans="2:6" ht="14.25">
       <c r="B4" s="4">
         <v>1</v>
       </c>
@@ -4028,37 +4292,37 @@
       </c>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" spans="2:6">
+    <row r="5" spans="2:6" ht="14.25">
       <c r="B5" s="8">
         <v>2</v>
       </c>
       <c r="C5" s="47" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="D5" s="48" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>285</v>
       </c>
       <c r="F5" s="49"/>
     </row>
-    <row r="6" spans="2:6">
+    <row r="6" spans="2:6" ht="14.25">
       <c r="B6" s="46">
         <v>3</v>
       </c>
       <c r="C6" s="47" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="D6" s="48" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>285</v>
       </c>
       <c r="F6" s="49"/>
     </row>
-    <row r="7" spans="2:6">
+    <row r="7" spans="2:6" ht="14.25">
       <c r="B7" s="8">
         <v>4</v>
       </c>
@@ -4073,7 +4337,7 @@
       </c>
       <c r="F7" s="11"/>
     </row>
-    <row r="8" spans="2:6">
+    <row r="8" spans="2:6" ht="14.25">
       <c r="B8" s="46">
         <v>5</v>
       </c>
@@ -4088,7 +4352,7 @@
       </c>
       <c r="F8" s="11"/>
     </row>
-    <row r="9" spans="2:6" ht="15">
+    <row r="9" spans="2:6" ht="14.25">
       <c r="B9" s="8">
         <v>6</v>
       </c>
@@ -4103,7 +4367,7 @@
       </c>
       <c r="F9" s="11"/>
     </row>
-    <row r="10" spans="2:6">
+    <row r="10" spans="2:6" ht="14.25">
       <c r="B10" s="46">
         <v>7</v>
       </c>
@@ -4118,7 +4382,7 @@
       </c>
       <c r="F10" s="11"/>
     </row>
-    <row r="11" spans="2:6">
+    <row r="11" spans="2:6" ht="14.25">
       <c r="B11" s="8">
         <v>8</v>
       </c>
@@ -4129,11 +4393,11 @@
         <v>119</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="F11" s="11"/>
     </row>
-    <row r="12" spans="2:6">
+    <row r="12" spans="2:6" ht="14.25">
       <c r="B12" s="46">
         <v>9</v>
       </c>
@@ -4144,11 +4408,11 @@
         <v>129</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="F12" s="11"/>
     </row>
-    <row r="13" spans="2:6">
+    <row r="13" spans="2:6" ht="14.25">
       <c r="B13" s="8">
         <v>10</v>
       </c>
@@ -4159,41 +4423,41 @@
         <v>130</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="F13" s="11"/>
     </row>
-    <row r="14" spans="2:6">
+    <row r="14" spans="2:6" ht="14.25">
       <c r="B14" s="46">
         <v>11</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="F14" s="11"/>
     </row>
-    <row r="15" spans="2:6">
+    <row r="15" spans="2:6" ht="14.25">
       <c r="B15" s="8">
         <v>12</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="F15" s="11"/>
     </row>
-    <row r="16" spans="2:6">
+    <row r="16" spans="2:6" ht="14.25">
       <c r="B16" s="46">
         <v>13</v>
       </c>
@@ -4204,131 +4468,131 @@
         <v>136</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="F16" s="11"/>
     </row>
-    <row r="17" spans="2:6">
+    <row r="17" spans="2:6" ht="14.25">
       <c r="B17" s="8">
         <v>14</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="F17" s="11"/>
     </row>
-    <row r="18" spans="2:6">
+    <row r="18" spans="2:6" ht="14.25">
       <c r="B18" s="46">
         <v>15</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="D18" s="15" t="s">
         <v>138</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="F18" s="11"/>
     </row>
-    <row r="19" spans="2:6">
+    <row r="19" spans="2:6" ht="14.25">
       <c r="B19" s="8">
         <v>16</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="F19" s="11"/>
     </row>
-    <row r="20" spans="2:6">
+    <row r="20" spans="2:6" ht="14.25">
       <c r="B20" s="46">
         <v>17</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D20" s="15" t="s">
         <v>139</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="F20" s="11"/>
     </row>
-    <row r="21" spans="2:6">
+    <row r="21" spans="2:6" ht="14.25">
       <c r="B21" s="8">
         <v>18</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="F21" s="11"/>
     </row>
-    <row r="22" spans="2:6">
+    <row r="22" spans="2:6" ht="14.25">
       <c r="B22" s="46">
         <v>19</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="F22" s="13"/>
     </row>
-    <row r="23" spans="2:6" ht="15">
+    <row r="23" spans="2:6" ht="14.25">
       <c r="B23" s="8">
         <v>20</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="F23" s="13"/>
     </row>
-    <row r="24" spans="2:6" ht="15">
+    <row r="24" spans="2:6" ht="14.25">
       <c r="B24" s="46">
         <v>21</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="F24" s="13"/>
     </row>
-    <row r="25" spans="2:6" ht="15">
+    <row r="25" spans="2:6" ht="14.25">
       <c r="B25" s="8">
         <v>22</v>
       </c>
@@ -4339,11 +4603,11 @@
         <v>328</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="F25" s="13"/>
     </row>
-    <row r="26" spans="2:6" ht="15">
+    <row r="26" spans="2:6" ht="14.25">
       <c r="B26" s="46">
         <v>23</v>
       </c>
@@ -4354,11 +4618,11 @@
         <v>330</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="F26" s="13"/>
     </row>
-    <row r="27" spans="2:6" ht="15">
+    <row r="27" spans="2:6" ht="14.25">
       <c r="B27" s="8">
         <v>24</v>
       </c>
@@ -4369,26 +4633,26 @@
         <v>332</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="F27" s="13"/>
     </row>
-    <row r="28" spans="2:6" ht="15">
+    <row r="28" spans="2:6" ht="14.25">
       <c r="B28" s="46">
         <v>25</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="D28" s="15" t="s">
         <v>333</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="F28" s="13"/>
     </row>
-    <row r="29" spans="2:6" ht="15">
+    <row r="29" spans="2:6" ht="14.25">
       <c r="B29" s="8">
         <v>26</v>
       </c>
@@ -4399,101 +4663,101 @@
         <v>335</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="F29" s="13"/>
     </row>
-    <row r="30" spans="2:6" ht="15">
+    <row r="30" spans="2:6" ht="14.25">
       <c r="B30" s="46">
         <v>27</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="F30" s="13"/>
     </row>
-    <row r="31" spans="2:6" ht="15">
+    <row r="31" spans="2:6" ht="14.25">
       <c r="B31" s="46">
         <v>28</v>
       </c>
-      <c r="C31" s="14" t="s">
-        <v>373</v>
+      <c r="C31" s="12" t="s">
+        <v>745</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>372</v>
+        <v>746</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="F31" s="13"/>
     </row>
-    <row r="32" spans="2:6" ht="15">
+    <row r="32" spans="2:6" ht="14.25">
       <c r="B32" s="46">
         <v>29</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>592</v>
+        <v>375</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>430</v>
+        <v>374</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F32" s="13"/>
     </row>
-    <row r="33" spans="2:6" ht="15">
-      <c r="B33" s="8">
+    <row r="33" spans="2:6" ht="14.25">
+      <c r="B33" s="46">
         <v>30</v>
       </c>
       <c r="C33" s="14" t="s">
+        <v>595</v>
+      </c>
+      <c r="D33" s="15" t="s">
         <v>432</v>
       </c>
-      <c r="D33" s="15" t="s">
-        <v>433</v>
-      </c>
       <c r="E33" s="15" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="F33" s="13"/>
     </row>
-    <row r="34" spans="2:6" ht="15">
+    <row r="34" spans="2:6" ht="14.25">
       <c r="B34" s="46">
         <v>31</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>473</v>
+        <v>434</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>474</v>
+        <v>435</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="F34" s="13"/>
     </row>
-    <row r="35" spans="2:6" ht="15">
-      <c r="B35" s="8">
+    <row r="35" spans="2:6" ht="14.25">
+      <c r="B35" s="46">
         <v>32</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="D35" s="15" t="s">
+        <v>476</v>
+      </c>
+      <c r="E35" s="15" t="s">
         <v>480</v>
       </c>
-      <c r="E35" s="15" t="s">
-        <v>478</v>
-      </c>
       <c r="F35" s="13"/>
     </row>
-    <row r="36" spans="2:6" ht="15">
+    <row r="36" spans="2:6" ht="14.25">
       <c r="B36" s="46">
         <v>33</v>
       </c>
@@ -4504,86 +4768,86 @@
         <v>482</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="F36" s="13"/>
     </row>
-    <row r="37" spans="2:6" ht="15">
-      <c r="B37" s="8">
+    <row r="37" spans="2:6" ht="14.25">
+      <c r="B37" s="46">
         <v>34</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>526</v>
+        <v>483</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>527</v>
+        <v>484</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="F37" s="13"/>
     </row>
-    <row r="38" spans="2:6" ht="15">
+    <row r="38" spans="2:6" ht="14.25">
       <c r="B38" s="46">
         <v>35</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>543</v>
+        <v>528</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>544</v>
+        <v>529</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="F38" s="13"/>
     </row>
-    <row r="39" spans="2:6" ht="15">
-      <c r="B39" s="8">
+    <row r="39" spans="2:6" ht="14.25">
+      <c r="B39" s="46">
         <v>36</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>669</v>
+        <v>545</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>671</v>
+        <v>546</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>679</v>
+        <v>480</v>
       </c>
       <c r="F39" s="13"/>
     </row>
-    <row r="40" spans="2:6" ht="15">
+    <row r="40" spans="2:6" ht="14.25">
       <c r="B40" s="46">
         <v>37</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D40" s="15" t="s">
+        <v>673</v>
+      </c>
+      <c r="E40" s="15" t="s">
+        <v>681</v>
+      </c>
+      <c r="F40" s="13"/>
+    </row>
+    <row r="41" spans="2:6" ht="14.25">
+      <c r="B41" s="46">
+        <v>38</v>
+      </c>
+      <c r="C41" s="14" t="s">
         <v>672</v>
       </c>
-      <c r="E40" s="15" t="s">
-        <v>679</v>
-      </c>
-      <c r="F40" s="13"/>
-    </row>
-    <row r="41" spans="2:6" ht="15">
-      <c r="B41" s="8">
-        <v>38</v>
-      </c>
-      <c r="C41" s="14" t="s">
-        <v>675</v>
-      </c>
       <c r="D41" s="15" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="F41" s="13"/>
     </row>
-    <row r="42" spans="2:6" ht="15">
+    <row r="42" spans="2:6" ht="14.25">
       <c r="B42" s="46">
         <v>39</v>
       </c>
@@ -4591,54 +4855,69 @@
         <v>677</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="E42" s="15" t="s">
+        <v>681</v>
+      </c>
+      <c r="F42" s="13"/>
+    </row>
+    <row r="43" spans="2:6" ht="14.25">
+      <c r="B43" s="46">
+        <v>40</v>
+      </c>
+      <c r="C43" s="14" t="s">
         <v>679</v>
       </c>
-      <c r="F42" s="13"/>
-    </row>
-    <row r="43" spans="2:6" ht="15">
-      <c r="B43" s="8">
-        <v>40</v>
-      </c>
-      <c r="C43" s="14" t="s">
-        <v>678</v>
-      </c>
       <c r="D43" s="15" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="F43" s="13"/>
     </row>
-    <row r="44" spans="2:6" ht="15.75">
+    <row r="44" spans="2:6" ht="14.25">
       <c r="B44" s="46">
         <v>41</v>
       </c>
-      <c r="C44" s="14"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="19"/>
+      <c r="C44" s="14" t="s">
+        <v>680</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>682</v>
+      </c>
+      <c r="E44" s="15" t="s">
+        <v>681</v>
+      </c>
       <c r="F44" s="13"/>
     </row>
     <row r="45" spans="2:6" ht="15.75">
-      <c r="B45" s="8">
+      <c r="B45" s="46">
         <v>42</v>
       </c>
-      <c r="C45" s="9"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="11"/>
-    </row>
-    <row r="46" spans="2:6" ht="15" thickBot="1">
-      <c r="B46" s="45">
-        <v>31</v>
-      </c>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="18"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="13"/>
+    </row>
+    <row r="46" spans="2:6" ht="15.75">
+      <c r="B46" s="46">
+        <v>43</v>
+      </c>
+      <c r="C46" s="9"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="11"/>
+    </row>
+    <row r="47" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B47" s="45">
+        <v>44</v>
+      </c>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -4665,34 +4944,35 @@
     <hyperlink ref="C28" location="实验详细流程表!A1" display="t_ExpProcess"/>
     <hyperlink ref="C29" location="实验评论表!A1" display="t_ExpReview"/>
     <hyperlink ref="C30" location="实验评论详细分类表!A1" display="t_ExpReviewDetail"/>
-    <hyperlink ref="C31" location="实验评论附件表!A1" display="t_ExpReviewAttch"/>
+    <hyperlink ref="C32" location="实验评论附件表!A1" display="t_ExpReviewAttch"/>
     <hyperlink ref="C17" location="试剂厂商对应表!A1" display="t_ReagentMap"/>
-    <hyperlink ref="C32" location="我的实验主表!A1" display="t_MyExpMain"/>
-    <hyperlink ref="C33" location="我的实验试剂表!A1" display="t_MyExpReagent"/>
-    <hyperlink ref="C34" location="我的实验耗材表!A1" display="t_MyExpConsumable"/>
-    <hyperlink ref="C35" location="我的实验设备表!A1" display="t_MyExpEquipment"/>
-    <hyperlink ref="C36" location="我的实验步骤表!A1" display="t_MyExpProcess"/>
-    <hyperlink ref="C37" location="我的实验步骤附件表!A1" display="t_MyExpProcessAttch"/>
-    <hyperlink ref="C38" location="我的实验计划表!A1" display="t_MyExpPlan"/>
-    <hyperlink ref="C39" location="BBS模块表!A1" display="t_BBSModule"/>
-    <hyperlink ref="C40" location="BBS主题表!A1" display="t_BBSTopic"/>
-    <hyperlink ref="C41" location="BBS主题附件表!A1" display="t_BBSTopicAttch"/>
-    <hyperlink ref="C42" location="BBS评论表!A1" display="t_BBSReview"/>
-    <hyperlink ref="C43" location="BBS评论附件表!A1" display="t_BBSReviewAttch"/>
+    <hyperlink ref="C33" location="我的实验主表!A1" display="t_MyExpMain"/>
+    <hyperlink ref="C34" location="我的实验试剂表!A1" display="t_MyExpReagent"/>
+    <hyperlink ref="C35" location="我的实验耗材表!A1" display="t_MyExpConsumable"/>
+    <hyperlink ref="C36" location="我的实验设备表!A1" display="t_MyExpEquipment"/>
+    <hyperlink ref="C37" location="我的实验步骤表!A1" display="t_MyExpProcess"/>
+    <hyperlink ref="C38" location="我的实验步骤附件表!A1" display="t_MyExpProcessAttch"/>
+    <hyperlink ref="C39" location="我的实验计划表!A1" display="t_MyExpPlan"/>
+    <hyperlink ref="C40" location="BBS模块表!A1" display="t_BBSModule"/>
+    <hyperlink ref="C41" location="BBS主题表!A1" display="t_BBSTopic"/>
+    <hyperlink ref="C42" location="BBS主题附件表!A1" display="t_BBSTopicAttch"/>
+    <hyperlink ref="C43" location="BBS评论表!A1" display="t_BBSReview"/>
+    <hyperlink ref="C44" location="BBS评论附件表!A1" display="t_BBSReviewAttch"/>
+    <hyperlink ref="C31" location="实验评论低分项明细表!A1" display="t_ExpReviewDetailofOpt"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10:C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="11.375" customWidth="1"/>
     <col min="12" max="12" width="54.875" customWidth="1"/>
@@ -5144,14 +5424,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="B11" sqref="B11:L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="11.375" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
@@ -5323,7 +5603,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="B10" s="34" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C10" s="32" t="s">
         <v>133</v>
@@ -5377,13 +5657,13 @@
     </row>
     <row r="12" spans="1:12">
       <c r="B12" s="30" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="E12" s="30"/>
       <c r="F12" s="30"/>
@@ -5393,15 +5673,15 @@
       <c r="J12" s="30"/>
       <c r="K12" s="33"/>
       <c r="L12" s="33" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="B13" s="30" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="D13" s="30" t="s">
         <v>287</v>
@@ -5416,15 +5696,15 @@
       <c r="J13" s="30"/>
       <c r="K13" s="30"/>
       <c r="L13" s="33" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="B14" s="30" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="D14" s="30" t="s">
         <v>302</v>
@@ -5439,15 +5719,15 @@
       <c r="J14" s="30"/>
       <c r="K14" s="30"/>
       <c r="L14" s="33" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="B15" s="30" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="D15" s="30" t="s">
         <v>302</v>
@@ -5462,15 +5742,15 @@
       <c r="J15" s="30"/>
       <c r="K15" s="30"/>
       <c r="L15" s="33" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="B16" s="30" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="D16" s="30" t="s">
         <v>287</v>
@@ -5485,15 +5765,15 @@
       <c r="J16" s="30"/>
       <c r="K16" s="30"/>
       <c r="L16" s="33" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
     </row>
     <row r="17" spans="2:12">
       <c r="B17" s="30" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="D17" s="30" t="s">
         <v>287</v>
@@ -5508,7 +5788,7 @@
       <c r="J17" s="30"/>
       <c r="K17" s="30"/>
       <c r="L17" s="33" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="18" spans="2:12">
@@ -5665,14 +5945,14 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="25.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.625" customWidth="1"/>
@@ -5747,7 +6027,7 @@
         <v>28</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="20.25">
@@ -5796,7 +6076,7 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G7" s="24"/>
     </row>
@@ -5844,10 +6124,10 @@
     </row>
     <row r="10" spans="1:12">
       <c r="B10" s="34" t="s">
+        <v>198</v>
+      </c>
+      <c r="C10" s="32" t="s">
         <v>199</v>
-      </c>
-      <c r="C10" s="32" t="s">
-        <v>200</v>
       </c>
       <c r="D10" s="30" t="s">
         <v>39</v>
@@ -5868,18 +6148,18 @@
         <v>27</v>
       </c>
       <c r="L10" s="33" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="B11" s="30" t="s">
+        <v>200</v>
+      </c>
+      <c r="C11" s="32" t="s">
         <v>201</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="D11" s="30" t="s">
         <v>202</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>203</v>
       </c>
       <c r="E11" s="30">
         <v>200</v>
@@ -5891,7 +6171,7 @@
       <c r="J11" s="30"/>
       <c r="K11" s="33"/>
       <c r="L11" s="32" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -6151,14 +6431,14 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="25.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.625" customWidth="1"/>
@@ -6233,7 +6513,7 @@
         <v>28</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="20.25">
@@ -6282,7 +6562,7 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G7" s="24"/>
     </row>
@@ -6330,10 +6610,10 @@
     </row>
     <row r="10" spans="1:12">
       <c r="B10" s="34" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D10" s="30" t="s">
         <v>39</v>
@@ -6354,18 +6634,18 @@
         <v>27</v>
       </c>
       <c r="L10" s="33" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="B11" s="30" t="s">
-        <v>727</v>
+        <v>205</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E11" s="30">
         <v>200</v>
@@ -6379,15 +6659,15 @@
       <c r="J11" s="30"/>
       <c r="K11" s="33"/>
       <c r="L11" s="32" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="B12" s="30" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D12" s="30" t="s">
         <v>39</v>
@@ -6404,7 +6684,7 @@
       <c r="J12" s="30"/>
       <c r="K12" s="33"/>
       <c r="L12" s="33" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -6651,14 +6931,14 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B13" sqref="B13:L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="19.5" customWidth="1"/>
     <col min="3" max="3" width="13.625" customWidth="1"/>
@@ -6830,10 +7110,10 @@
     </row>
     <row r="10" spans="1:12">
       <c r="B10" s="34" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>144</v>
+        <v>756</v>
       </c>
       <c r="D10" s="30" t="s">
         <v>39</v>
@@ -6862,7 +7142,7 @@
         <v>143</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>154</v>
+        <v>757</v>
       </c>
       <c r="D11" s="30" t="s">
         <v>39</v>
@@ -6890,7 +7170,7 @@
         <v>260</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E12" s="30">
         <v>500</v>
@@ -6907,10 +7187,10 @@
     </row>
     <row r="13" spans="1:12">
       <c r="B13" s="30" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D13" s="34" t="s">
         <v>39</v>
@@ -6927,15 +7207,15 @@
       <c r="J13" s="30"/>
       <c r="K13" s="33"/>
       <c r="L13" s="33" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="B14" s="30" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D14" s="34" t="s">
         <v>39</v>
@@ -6952,15 +7232,15 @@
       <c r="J14" s="30"/>
       <c r="K14" s="33"/>
       <c r="L14" s="33" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="B15" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="C15" s="33" t="s">
         <v>162</v>
-      </c>
-      <c r="C15" s="33" t="s">
-        <v>163</v>
       </c>
       <c r="D15" s="30" t="s">
         <v>39</v>
@@ -6975,18 +7255,18 @@
       <c r="J15" s="30"/>
       <c r="K15" s="30"/>
       <c r="L15" s="33" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="B16" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="C16" s="33" t="s">
         <v>164</v>
       </c>
-      <c r="C16" s="33" t="s">
+      <c r="D16" s="30" t="s">
         <v>165</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>166</v>
       </c>
       <c r="E16" s="30">
         <v>50</v>
@@ -6998,18 +7278,18 @@
       <c r="J16" s="30"/>
       <c r="K16" s="30"/>
       <c r="L16" s="33" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="2:12">
       <c r="B17" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="C17" s="33" t="s">
         <v>168</v>
       </c>
-      <c r="C17" s="33" t="s">
+      <c r="D17" s="30" t="s">
         <v>169</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>170</v>
       </c>
       <c r="E17" s="30">
         <v>50</v>
@@ -7021,18 +7301,18 @@
       <c r="J17" s="30"/>
       <c r="K17" s="30"/>
       <c r="L17" s="33" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="2:12">
       <c r="B18" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="C18" s="33" t="s">
         <v>172</v>
       </c>
-      <c r="C18" s="33" t="s">
-        <v>173</v>
-      </c>
       <c r="D18" s="30" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E18" s="30">
         <v>50</v>
@@ -7044,18 +7324,18 @@
       <c r="J18" s="30"/>
       <c r="K18" s="30"/>
       <c r="L18" s="33" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19" spans="2:12">
       <c r="B19" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="C19" s="33" t="s">
         <v>175</v>
       </c>
-      <c r="C19" s="33" t="s">
+      <c r="D19" s="30" t="s">
         <v>176</v>
-      </c>
-      <c r="D19" s="30" t="s">
-        <v>177</v>
       </c>
       <c r="E19" s="30"/>
       <c r="F19" s="30"/>
@@ -7065,18 +7345,18 @@
       <c r="J19" s="30"/>
       <c r="K19" s="30"/>
       <c r="L19" s="33" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20" spans="2:12">
       <c r="B20" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="C20" s="33" t="s">
         <v>179</v>
       </c>
-      <c r="C20" s="33" t="s">
-        <v>180</v>
-      </c>
       <c r="D20" s="30" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E20" s="30">
         <v>100</v>
@@ -7088,18 +7368,18 @@
       <c r="J20" s="30"/>
       <c r="K20" s="30"/>
       <c r="L20" s="33" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="2:12">
       <c r="B21" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="C21" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="C21" s="33" t="s">
-        <v>183</v>
-      </c>
       <c r="D21" s="30" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E21" s="30">
         <v>50</v>
@@ -7111,18 +7391,18 @@
       <c r="J21" s="30"/>
       <c r="K21" s="30"/>
       <c r="L21" s="33" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22" spans="2:12">
       <c r="B22" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="C22" s="32" t="s">
         <v>184</v>
       </c>
-      <c r="C22" s="32" t="s">
+      <c r="D22" s="34" t="s">
         <v>185</v>
-      </c>
-      <c r="D22" s="34" t="s">
-        <v>186</v>
       </c>
       <c r="E22" s="34"/>
       <c r="F22" s="34"/>
@@ -7132,18 +7412,18 @@
       <c r="J22" s="35"/>
       <c r="K22" s="35"/>
       <c r="L22" s="33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23" spans="2:12">
       <c r="B23" s="30" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C23" s="33" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E23" s="30">
         <v>500</v>
@@ -7155,7 +7435,7 @@
       <c r="J23" s="30"/>
       <c r="K23" s="30"/>
       <c r="L23" s="33" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="24" spans="2:12">
@@ -7260,14 +7540,14 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="19.5" customWidth="1"/>
     <col min="3" max="3" width="13.625" customWidth="1"/>
@@ -7342,7 +7622,7 @@
         <v>28</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="20.25">
@@ -7391,7 +7671,7 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="G7" s="24"/>
     </row>
@@ -7439,10 +7719,10 @@
     </row>
     <row r="10" spans="1:12" ht="24">
       <c r="B10" s="34" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="D10" s="34"/>
       <c r="E10" s="34"/>
@@ -7459,18 +7739,18 @@
         <v>27</v>
       </c>
       <c r="L10" s="32" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="B11" s="30" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="E11" s="30">
         <v>40</v>
@@ -7478,13 +7758,13 @@
       <c r="F11" s="33"/>
       <c r="G11" s="33"/>
       <c r="H11" s="33" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="I11" s="33"/>
       <c r="J11" s="33"/>
       <c r="K11" s="33"/>
       <c r="L11" s="33" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -7495,7 +7775,7 @@
         <v>133</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="E12" s="30">
         <v>40</v>
@@ -7769,14 +8049,14 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:C12"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="13.625" customWidth="1"/>
@@ -7851,7 +8131,7 @@
         <v>28</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="20.25">
@@ -7948,7 +8228,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="B10" s="34" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C10" s="32" t="s">
         <v>152</v>
@@ -8002,13 +8282,13 @@
     </row>
     <row r="12" spans="1:12">
       <c r="B12" s="30" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E12" s="30">
         <v>20</v>
@@ -8239,14 +8519,14 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="19.5" customWidth="1"/>
     <col min="3" max="3" width="13.625" customWidth="1"/>
@@ -8321,7 +8601,7 @@
         <v>28</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="20.25">
@@ -8370,7 +8650,7 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="G7" s="24"/>
     </row>
@@ -8418,10 +8698,10 @@
     </row>
     <row r="10" spans="1:12" ht="24">
       <c r="B10" s="30" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="D10" s="34"/>
       <c r="E10" s="34"/>
@@ -8438,7 +8718,7 @@
         <v>27</v>
       </c>
       <c r="L10" s="32" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -8449,7 +8729,7 @@
         <v>152</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="E11" s="30">
         <v>40</v>
@@ -8457,7 +8737,7 @@
       <c r="F11" s="33"/>
       <c r="G11" s="33"/>
       <c r="H11" s="33" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="I11" s="33"/>
       <c r="J11" s="33"/>
@@ -8474,7 +8754,7 @@
         <v>133</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="E12" s="30">
         <v>40</v>
@@ -8748,14 +9028,14 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10:C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="13.625" customWidth="1"/>
@@ -8830,7 +9110,7 @@
         <v>28</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="20.25">
@@ -8879,7 +9159,7 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G7" s="24"/>
     </row>
@@ -8927,10 +9207,10 @@
     </row>
     <row r="10" spans="1:12">
       <c r="B10" s="34" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D10" s="30" t="s">
         <v>39</v>
@@ -8951,15 +9231,15 @@
         <v>27</v>
       </c>
       <c r="L10" s="33" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="B11" s="30" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D11" s="30" t="s">
         <v>39</v>
@@ -8976,7 +9256,7 @@
       <c r="J11" s="30"/>
       <c r="K11" s="33"/>
       <c r="L11" s="33" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -9210,14 +9490,14 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="19.5" customWidth="1"/>
     <col min="3" max="3" width="13.625" customWidth="1"/>
@@ -9292,7 +9572,7 @@
         <v>28</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="20.25">
@@ -9341,7 +9621,7 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="G7" s="24"/>
     </row>
@@ -9389,10 +9669,10 @@
     </row>
     <row r="10" spans="1:12" ht="24">
       <c r="B10" s="30" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="D10" s="34"/>
       <c r="E10" s="34"/>
@@ -9409,18 +9689,18 @@
         <v>27</v>
       </c>
       <c r="L10" s="32" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="B11" s="30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="E11" s="30">
         <v>40</v>
@@ -9428,13 +9708,13 @@
       <c r="F11" s="33"/>
       <c r="G11" s="33"/>
       <c r="H11" s="33" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="I11" s="33"/>
       <c r="J11" s="33"/>
       <c r="K11" s="33"/>
       <c r="L11" s="33" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -9445,7 +9725,7 @@
         <v>133</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="E12" s="30">
         <v>40</v>
@@ -9719,14 +9999,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="11.375" customWidth="1"/>
     <col min="12" max="12" width="54.875" customWidth="1"/>
@@ -9897,7 +10177,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="B10" s="30" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C10" s="31" t="s">
         <v>32</v>
@@ -10213,18 +10493,18 @@
       <c r="J22" s="35"/>
       <c r="K22" s="35"/>
       <c r="L22" s="33" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
     </row>
     <row r="23" spans="2:12">
       <c r="B23" s="30" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="C23" s="33" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="E23" s="30"/>
       <c r="F23" s="30"/>
@@ -10234,18 +10514,18 @@
       <c r="J23" s="30"/>
       <c r="K23" s="30"/>
       <c r="L23" s="33" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="24" spans="2:12">
       <c r="B24" s="34" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="C24" s="32" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="D24" s="34" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="E24" s="34"/>
       <c r="F24" s="34"/>
@@ -10255,18 +10535,18 @@
       <c r="J24" s="35"/>
       <c r="K24" s="35"/>
       <c r="L24" s="33" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
     </row>
     <row r="25" spans="2:12">
       <c r="B25" s="30" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="C25" s="33" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="E25" s="30"/>
       <c r="F25" s="30"/>
@@ -10276,18 +10556,18 @@
       <c r="J25" s="30"/>
       <c r="K25" s="30"/>
       <c r="L25" s="33" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
     </row>
     <row r="26" spans="2:12">
       <c r="B26" s="34" t="s">
-        <v>720</v>
+        <v>724</v>
       </c>
       <c r="C26" s="34" t="s">
-        <v>721</v>
+        <v>725</v>
       </c>
       <c r="D26" s="34" t="s">
-        <v>722</v>
+        <v>726</v>
       </c>
       <c r="E26" s="34">
         <v>200</v>
@@ -10299,7 +10579,7 @@
       <c r="J26" s="35"/>
       <c r="K26" s="35"/>
       <c r="L26" s="33" t="s">
-        <v>723</v>
+        <v>727</v>
       </c>
     </row>
     <row r="27" spans="2:12">
@@ -10339,14 +10619,14 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="13.625" customWidth="1"/>
@@ -10421,7 +10701,7 @@
         <v>28</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="20.25">
@@ -10470,7 +10750,7 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G7" s="24"/>
     </row>
@@ -10518,10 +10798,10 @@
     </row>
     <row r="10" spans="1:12">
       <c r="B10" s="34" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D10" s="30" t="s">
         <v>39</v>
@@ -10542,15 +10822,15 @@
         <v>27</v>
       </c>
       <c r="L10" s="33" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="B11" s="30" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D11" s="30" t="s">
         <v>39</v>
@@ -10567,7 +10847,7 @@
       <c r="J11" s="30"/>
       <c r="K11" s="33"/>
       <c r="L11" s="33" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -10801,14 +11081,14 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="13.625" customWidth="1"/>
@@ -10883,7 +11163,7 @@
         <v>28</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="20.25">
@@ -10932,7 +11212,7 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G7" s="24"/>
     </row>
@@ -10980,10 +11260,10 @@
     </row>
     <row r="10" spans="1:12">
       <c r="B10" s="34" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D10" s="30" t="s">
         <v>39</v>
@@ -11004,15 +11284,15 @@
         <v>27</v>
       </c>
       <c r="L10" s="33" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="B11" s="30" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D11" s="30" t="s">
         <v>39</v>
@@ -11029,15 +11309,15 @@
       <c r="J11" s="30"/>
       <c r="K11" s="33"/>
       <c r="L11" s="33" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="B12" s="30" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D12" s="30" t="s">
         <v>39</v>
@@ -11052,7 +11332,7 @@
       <c r="J12" s="30"/>
       <c r="K12" s="33"/>
       <c r="L12" s="33" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -11273,14 +11553,14 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="19.625" customWidth="1"/>
@@ -11355,7 +11635,7 @@
         <v>28</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="20.25">
@@ -11404,7 +11684,7 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G7" s="24"/>
     </row>
@@ -11452,13 +11732,13 @@
     </row>
     <row r="10" spans="1:12">
       <c r="B10" s="34" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E10" s="34">
         <v>40</v>
@@ -11476,18 +11756,18 @@
         <v>27</v>
       </c>
       <c r="L10" s="33" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="B11" s="34" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E11" s="30">
         <v>200</v>
@@ -11502,13 +11782,13 @@
     </row>
     <row r="12" spans="1:12">
       <c r="B12" s="34" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E12" s="30">
         <v>1000</v>
@@ -11523,13 +11803,13 @@
     </row>
     <row r="13" spans="1:12">
       <c r="B13" s="30" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E13" s="30"/>
       <c r="F13" s="30"/>
@@ -11542,13 +11822,13 @@
     </row>
     <row r="14" spans="1:12">
       <c r="B14" s="30" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E14" s="30">
         <v>40</v>
@@ -11560,7 +11840,7 @@
       <c r="J14" s="30"/>
       <c r="K14" s="30"/>
       <c r="L14" s="33" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -11583,7 +11863,7 @@
       <c r="J15" s="30"/>
       <c r="K15" s="30"/>
       <c r="L15" s="33" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -11634,7 +11914,7 @@
     </row>
     <row r="18" spans="2:12">
       <c r="B18" s="34" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C18" s="33" t="s">
         <v>291</v>
@@ -11657,7 +11937,7 @@
     </row>
     <row r="19" spans="2:12">
       <c r="B19" s="34" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C19" s="33" t="s">
         <v>293</v>
@@ -11683,7 +11963,7 @@
         <v>295</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="D20" s="30" t="s">
         <v>297</v>
@@ -11722,10 +12002,10 @@
     </row>
     <row r="22" spans="2:12">
       <c r="B22" s="34" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="C22" s="32" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="D22" s="34" t="s">
         <v>302</v>
@@ -11738,7 +12018,7 @@
       <c r="J22" s="35"/>
       <c r="K22" s="35"/>
       <c r="L22" s="33" t="s">
-        <v>724</v>
+        <v>704</v>
       </c>
     </row>
     <row r="23" spans="2:12">
@@ -11761,7 +12041,7 @@
       <c r="J23" s="30"/>
       <c r="K23" s="30"/>
       <c r="L23" s="33" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
     </row>
     <row r="24" spans="2:12">
@@ -11886,14 +12166,14 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:C18"/>
+    <sheetView topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="19.625" customWidth="1"/>
@@ -12017,7 +12297,7 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G7" s="24"/>
     </row>
@@ -12065,13 +12345,13 @@
     </row>
     <row r="10" spans="1:12">
       <c r="B10" s="34" t="s">
-        <v>599</v>
+        <v>752</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E10" s="34">
         <v>40</v>
@@ -12092,13 +12372,13 @@
     </row>
     <row r="11" spans="1:12">
       <c r="B11" s="34" t="s">
-        <v>234</v>
+        <v>753</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>726</v>
+        <v>236</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E11" s="34">
         <v>40</v>
@@ -12113,10 +12393,10 @@
     </row>
     <row r="12" spans="1:12">
       <c r="B12" s="34" t="s">
+        <v>754</v>
+      </c>
+      <c r="C12" s="33" t="s">
         <v>255</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>144</v>
       </c>
       <c r="D12" s="34" t="s">
         <v>286</v>
@@ -12134,13 +12414,13 @@
     </row>
     <row r="13" spans="1:12">
       <c r="B13" s="34" t="s">
+        <v>755</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="D13" s="34" t="s">
         <v>258</v>
-      </c>
-      <c r="C13" s="33" t="s">
-        <v>256</v>
-      </c>
-      <c r="D13" s="34" t="s">
-        <v>257</v>
       </c>
       <c r="E13" s="30">
         <v>100</v>
@@ -12161,7 +12441,7 @@
         <v>260</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E14" s="30">
         <v>500</v>
@@ -12182,7 +12462,7 @@
         <v>263</v>
       </c>
       <c r="D15" s="34" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E15" s="34">
         <v>1000</v>
@@ -12221,10 +12501,10 @@
         <v>268</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D17" s="34" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E17" s="34"/>
       <c r="F17" s="30"/>
@@ -12255,47 +12535,83 @@
       <c r="J18" s="30"/>
       <c r="K18" s="33"/>
       <c r="L18" s="33" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
     </row>
     <row r="19" spans="2:12">
-      <c r="B19" s="30"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="33"/>
+      <c r="B19" s="53" t="s">
+        <v>188</v>
+      </c>
+      <c r="C19" s="52" t="s">
+        <v>190</v>
+      </c>
+      <c r="D19" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="53">
+        <v>40</v>
+      </c>
+      <c r="F19" s="53"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="I19" s="53"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="52" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="20" spans="2:12">
-      <c r="B20" s="30"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="33"/>
+      <c r="B20" s="53" t="s">
+        <v>189</v>
+      </c>
+      <c r="C20" s="52" t="s">
+        <v>191</v>
+      </c>
+      <c r="D20" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="53">
+        <v>40</v>
+      </c>
+      <c r="F20" s="53"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20" s="53"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="21" spans="2:12">
-      <c r="B21" s="34"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="33"/>
+      <c r="B21" s="53" t="s">
+        <v>134</v>
+      </c>
+      <c r="C21" s="52" t="s">
+        <v>135</v>
+      </c>
+      <c r="D21" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="53">
+        <v>100</v>
+      </c>
+      <c r="F21" s="53"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="I21" s="52"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="22" spans="2:12">
       <c r="B22" s="30"/>
@@ -12411,14 +12727,14 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="B18" sqref="B18:L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="19.625" customWidth="1"/>
@@ -12590,13 +12906,13 @@
     </row>
     <row r="10" spans="1:12">
       <c r="B10" s="34" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E10" s="34">
         <v>40</v>
@@ -12614,18 +12930,18 @@
         <v>27</v>
       </c>
       <c r="L10" s="33" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="B11" s="34" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E11" s="34">
         <v>40</v>
@@ -12637,7 +12953,7 @@
       <c r="J11" s="33"/>
       <c r="K11" s="33"/>
       <c r="L11" s="33" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -12645,7 +12961,7 @@
         <v>149</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="D12" s="34" t="s">
         <v>286</v>
@@ -12688,13 +13004,13 @@
     </row>
     <row r="14" spans="1:12">
       <c r="B14" s="30" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E14" s="30">
         <v>20</v>
@@ -12715,7 +13031,7 @@
         <v>272</v>
       </c>
       <c r="D15" s="37" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E15" s="37"/>
       <c r="F15" s="37"/>
@@ -12767,21 +13083,33 @@
       <c r="J17" s="30"/>
       <c r="K17" s="33"/>
       <c r="L17" s="33" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
     </row>
     <row r="18" spans="2:12">
-      <c r="B18" s="42"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="33"/>
+      <c r="B18" s="53" t="s">
+        <v>134</v>
+      </c>
+      <c r="C18" s="52" t="s">
+        <v>135</v>
+      </c>
+      <c r="D18" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="53">
+        <v>100</v>
+      </c>
+      <c r="F18" s="53"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="I18" s="52"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="52" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="19" spans="2:12">
       <c r="B19" s="42"/>
@@ -12949,14 +13277,14 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="B16" sqref="B16:L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="19.625" customWidth="1"/>
@@ -13128,10 +13456,10 @@
     </row>
     <row r="10" spans="1:12">
       <c r="B10" s="34" t="s">
+        <v>560</v>
+      </c>
+      <c r="C10" s="32" t="s">
         <v>558</v>
-      </c>
-      <c r="C10" s="32" t="s">
-        <v>556</v>
       </c>
       <c r="D10" s="34"/>
       <c r="E10" s="34"/>
@@ -13148,18 +13476,18 @@
         <v>27</v>
       </c>
       <c r="L10" s="33" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="B11" s="34" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E11" s="34">
         <v>40</v>
@@ -13171,18 +13499,18 @@
       <c r="J11" s="33"/>
       <c r="K11" s="33"/>
       <c r="L11" s="33" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="B12" s="34" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E12" s="34">
         <v>40</v>
@@ -13201,10 +13529,10 @@
     </row>
     <row r="13" spans="1:12">
       <c r="B13" s="30" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D13" s="30" t="s">
         <v>39</v>
@@ -13222,13 +13550,13 @@
     </row>
     <row r="14" spans="1:12">
       <c r="B14" s="30" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E14" s="30">
         <v>100</v>
@@ -13261,21 +13589,33 @@
       <c r="J15" s="30"/>
       <c r="K15" s="33"/>
       <c r="L15" s="33" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="B16" s="30"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="33"/>
+      <c r="B16" s="53" t="s">
+        <v>134</v>
+      </c>
+      <c r="C16" s="52" t="s">
+        <v>135</v>
+      </c>
+      <c r="D16" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="53">
+        <v>100</v>
+      </c>
+      <c r="F16" s="53"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="I16" s="52"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="52" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="17" spans="2:12">
       <c r="B17" s="30"/>
@@ -13456,14 +13796,14 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="19.625" customWidth="1"/>
@@ -13538,7 +13878,7 @@
         <v>28</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="20.25">
@@ -13641,7 +13981,7 @@
         <v>311</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E10" s="34">
         <v>40</v>
@@ -13664,13 +14004,13 @@
     </row>
     <row r="11" spans="1:12">
       <c r="B11" s="34" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E11" s="34">
         <v>40</v>
@@ -13684,7 +14024,7 @@
       <c r="J11" s="33"/>
       <c r="K11" s="33"/>
       <c r="L11" s="33" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -13695,7 +14035,7 @@
         <v>279</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E12" s="30"/>
       <c r="F12" s="30"/>
@@ -13708,7 +14048,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="B13" s="34" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="C13" s="33" t="s">
         <v>318</v>
@@ -13955,14 +14295,14 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C10" sqref="C10:C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="19.625" customWidth="1"/>
@@ -14140,7 +14480,7 @@
         <v>337</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E10" s="34">
         <v>40</v>
@@ -14163,13 +14503,13 @@
     </row>
     <row r="11" spans="1:12">
       <c r="B11" s="34" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>728</v>
+        <v>338</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E11" s="34">
         <v>40</v>
@@ -14183,18 +14523,18 @@
       <c r="J11" s="33"/>
       <c r="K11" s="33"/>
       <c r="L11" s="33" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="B12" s="34" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E12" s="34">
         <v>40</v>
@@ -14206,18 +14546,18 @@
       <c r="J12" s="30"/>
       <c r="K12" s="33"/>
       <c r="L12" s="33" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="B13" s="34" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E13" s="30"/>
       <c r="F13" s="30"/>
@@ -14227,18 +14567,18 @@
       <c r="J13" s="30"/>
       <c r="K13" s="33"/>
       <c r="L13" s="33" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="B14" s="30" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E14" s="30"/>
       <c r="F14" s="30"/>
@@ -14248,15 +14588,15 @@
       <c r="J14" s="30"/>
       <c r="K14" s="30"/>
       <c r="L14" s="33" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="B15" s="30" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D15" s="34" t="s">
         <v>302</v>
@@ -14269,15 +14609,15 @@
       <c r="J15" s="30"/>
       <c r="K15" s="30"/>
       <c r="L15" s="33" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="B16" s="30" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D16" s="34" t="s">
         <v>302</v>
@@ -14290,18 +14630,18 @@
       <c r="J16" s="30"/>
       <c r="K16" s="30"/>
       <c r="L16" s="33" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="17" spans="2:12">
       <c r="B17" s="30" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D17" s="34" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E17" s="34">
         <v>500</v>
@@ -14313,15 +14653,15 @@
       <c r="J17" s="30"/>
       <c r="K17" s="30"/>
       <c r="L17" s="33" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="18" spans="2:12">
       <c r="B18" s="30" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D18" s="34" t="s">
         <v>302</v>
@@ -14336,15 +14676,15 @@
       <c r="J18" s="30"/>
       <c r="K18" s="30"/>
       <c r="L18" s="33" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="19" spans="2:12">
       <c r="B19" s="30" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D19" s="30" t="s">
         <v>302</v>
@@ -14359,7 +14699,7 @@
       <c r="J19" s="30"/>
       <c r="K19" s="30"/>
       <c r="L19" s="33" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="20" spans="2:12">
@@ -14502,14 +14842,14 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="19.625" customWidth="1"/>
@@ -14584,7 +14924,7 @@
         <v>28</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="20.25">
@@ -14633,7 +14973,7 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="G7" s="24"/>
     </row>
@@ -14681,11 +15021,11 @@
     </row>
     <row r="10" spans="1:12">
       <c r="B10" s="51" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="C10" s="32"/>
       <c r="D10" s="34" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E10" s="34">
         <v>40</v>
@@ -14712,7 +15052,7 @@
         <v>337</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E11" s="34">
         <v>40</v>
@@ -14729,13 +15069,13 @@
     </row>
     <row r="12" spans="1:12">
       <c r="B12" s="34" t="s">
-        <v>708</v>
+        <v>716</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E12" s="34">
         <v>40</v>
@@ -14747,18 +15087,18 @@
       <c r="J12" s="33"/>
       <c r="K12" s="33"/>
       <c r="L12" s="33" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="B13" s="34" t="s">
-        <v>725</v>
+        <v>367</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="E13" s="34"/>
       <c r="F13" s="30"/>
@@ -14768,7 +15108,7 @@
       <c r="J13" s="30"/>
       <c r="K13" s="33"/>
       <c r="L13" s="33" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -15003,14 +15343,1168 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="19.875" customWidth="1"/>
+    <col min="3" max="3" width="19.625" customWidth="1"/>
+    <col min="12" max="12" width="54.875" customWidth="1"/>
+    <col min="258" max="258" width="11.375" customWidth="1"/>
+    <col min="514" max="514" width="11.375" customWidth="1"/>
+    <col min="770" max="770" width="11.375" customWidth="1"/>
+    <col min="1026" max="1026" width="11.375" customWidth="1"/>
+    <col min="1282" max="1282" width="11.375" customWidth="1"/>
+    <col min="1538" max="1538" width="11.375" customWidth="1"/>
+    <col min="1794" max="1794" width="11.375" customWidth="1"/>
+    <col min="2050" max="2050" width="11.375" customWidth="1"/>
+    <col min="2306" max="2306" width="11.375" customWidth="1"/>
+    <col min="2562" max="2562" width="11.375" customWidth="1"/>
+    <col min="2818" max="2818" width="11.375" customWidth="1"/>
+    <col min="3074" max="3074" width="11.375" customWidth="1"/>
+    <col min="3330" max="3330" width="11.375" customWidth="1"/>
+    <col min="3586" max="3586" width="11.375" customWidth="1"/>
+    <col min="3842" max="3842" width="11.375" customWidth="1"/>
+    <col min="4098" max="4098" width="11.375" customWidth="1"/>
+    <col min="4354" max="4354" width="11.375" customWidth="1"/>
+    <col min="4610" max="4610" width="11.375" customWidth="1"/>
+    <col min="4866" max="4866" width="11.375" customWidth="1"/>
+    <col min="5122" max="5122" width="11.375" customWidth="1"/>
+    <col min="5378" max="5378" width="11.375" customWidth="1"/>
+    <col min="5634" max="5634" width="11.375" customWidth="1"/>
+    <col min="5890" max="5890" width="11.375" customWidth="1"/>
+    <col min="6146" max="6146" width="11.375" customWidth="1"/>
+    <col min="6402" max="6402" width="11.375" customWidth="1"/>
+    <col min="6658" max="6658" width="11.375" customWidth="1"/>
+    <col min="6914" max="6914" width="11.375" customWidth="1"/>
+    <col min="7170" max="7170" width="11.375" customWidth="1"/>
+    <col min="7426" max="7426" width="11.375" customWidth="1"/>
+    <col min="7682" max="7682" width="11.375" customWidth="1"/>
+    <col min="7938" max="7938" width="11.375" customWidth="1"/>
+    <col min="8194" max="8194" width="11.375" customWidth="1"/>
+    <col min="8450" max="8450" width="11.375" customWidth="1"/>
+    <col min="8706" max="8706" width="11.375" customWidth="1"/>
+    <col min="8962" max="8962" width="11.375" customWidth="1"/>
+    <col min="9218" max="9218" width="11.375" customWidth="1"/>
+    <col min="9474" max="9474" width="11.375" customWidth="1"/>
+    <col min="9730" max="9730" width="11.375" customWidth="1"/>
+    <col min="9986" max="9986" width="11.375" customWidth="1"/>
+    <col min="10242" max="10242" width="11.375" customWidth="1"/>
+    <col min="10498" max="10498" width="11.375" customWidth="1"/>
+    <col min="10754" max="10754" width="11.375" customWidth="1"/>
+    <col min="11010" max="11010" width="11.375" customWidth="1"/>
+    <col min="11266" max="11266" width="11.375" customWidth="1"/>
+    <col min="11522" max="11522" width="11.375" customWidth="1"/>
+    <col min="11778" max="11778" width="11.375" customWidth="1"/>
+    <col min="12034" max="12034" width="11.375" customWidth="1"/>
+    <col min="12290" max="12290" width="11.375" customWidth="1"/>
+    <col min="12546" max="12546" width="11.375" customWidth="1"/>
+    <col min="12802" max="12802" width="11.375" customWidth="1"/>
+    <col min="13058" max="13058" width="11.375" customWidth="1"/>
+    <col min="13314" max="13314" width="11.375" customWidth="1"/>
+    <col min="13570" max="13570" width="11.375" customWidth="1"/>
+    <col min="13826" max="13826" width="11.375" customWidth="1"/>
+    <col min="14082" max="14082" width="11.375" customWidth="1"/>
+    <col min="14338" max="14338" width="11.375" customWidth="1"/>
+    <col min="14594" max="14594" width="11.375" customWidth="1"/>
+    <col min="14850" max="14850" width="11.375" customWidth="1"/>
+    <col min="15106" max="15106" width="11.375" customWidth="1"/>
+    <col min="15362" max="15362" width="11.375" customWidth="1"/>
+    <col min="15618" max="15618" width="11.375" customWidth="1"/>
+    <col min="15874" max="15874" width="11.375" customWidth="1"/>
+    <col min="16130" max="16130" width="11.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="20.25">
+      <c r="A1" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="20.25">
+      <c r="A2" s="20"/>
+      <c r="B2" s="21"/>
+      <c r="D2" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="18.75">
+      <c r="B3" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="24"/>
+      <c r="G3" s="25"/>
+    </row>
+    <row r="4" spans="1:12" ht="15.75">
+      <c r="B4" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="24"/>
+      <c r="G4" s="25"/>
+    </row>
+    <row r="5" spans="1:12" ht="15.75">
+      <c r="B5" s="22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15.75">
+      <c r="B6" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="27">
+        <v>1</v>
+      </c>
+      <c r="G6" s="24"/>
+    </row>
+    <row r="7" spans="1:12" ht="15.75">
+      <c r="B7" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>728</v>
+      </c>
+      <c r="G7" s="24"/>
+    </row>
+    <row r="8" spans="1:12" ht="15.75">
+      <c r="A8" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="24"/>
+      <c r="G8" s="24"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="B9" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" s="29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="B10" s="34" t="s">
+        <v>729</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>730</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>237</v>
+      </c>
+      <c r="E10" s="34">
+        <v>40</v>
+      </c>
+      <c r="F10" s="34"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="I10" s="30"/>
+      <c r="J10" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="L10" s="33" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="B11" s="34" t="s">
+        <v>336</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>337</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>237</v>
+      </c>
+      <c r="E11" s="34">
+        <v>40</v>
+      </c>
+      <c r="F11" s="34"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="B12" s="34" t="s">
+        <v>702</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>731</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>237</v>
+      </c>
+      <c r="E12" s="34">
+        <v>40</v>
+      </c>
+      <c r="F12" s="34"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="L12" s="33" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="B13" s="34" t="s">
+        <v>751</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>701</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>237</v>
+      </c>
+      <c r="E13" s="34">
+        <v>40</v>
+      </c>
+      <c r="F13" s="34"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="B14" s="34" t="s">
+        <v>732</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>733</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>237</v>
+      </c>
+      <c r="E14" s="34">
+        <v>40</v>
+      </c>
+      <c r="F14" s="34"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="B15" s="34" t="s">
+        <v>735</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>736</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>237</v>
+      </c>
+      <c r="E15" s="34">
+        <v>250</v>
+      </c>
+      <c r="F15" s="34"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="B16" s="34" t="s">
+        <v>738</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>739</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>237</v>
+      </c>
+      <c r="E16" s="34">
+        <v>40</v>
+      </c>
+      <c r="F16" s="34"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12">
+      <c r="B17" s="34" t="s">
+        <v>307</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>740</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>237</v>
+      </c>
+      <c r="E17" s="34">
+        <v>250</v>
+      </c>
+      <c r="F17" s="34"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="33" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12">
+      <c r="B18" s="34" t="s">
+        <v>742</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>743</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="34"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12">
+      <c r="B19" s="34" t="s">
+        <v>747</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>748</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>237</v>
+      </c>
+      <c r="E19" s="34">
+        <v>500</v>
+      </c>
+      <c r="F19" s="30"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="33" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12">
+      <c r="B20" s="30"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="33"/>
+    </row>
+    <row r="21" spans="2:12">
+      <c r="B21" s="30"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="33"/>
+    </row>
+    <row r="22" spans="2:12">
+      <c r="B22" s="30"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="33"/>
+    </row>
+    <row r="23" spans="2:12">
+      <c r="B23" s="30"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="33"/>
+    </row>
+    <row r="24" spans="2:12">
+      <c r="B24" s="30"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="33"/>
+    </row>
+    <row r="25" spans="2:12">
+      <c r="B25" s="30"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="33"/>
+    </row>
+    <row r="26" spans="2:12">
+      <c r="B26" s="30"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="33"/>
+    </row>
+    <row r="27" spans="2:12">
+      <c r="B27" s="34"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="33"/>
+    </row>
+    <row r="28" spans="2:12">
+      <c r="B28" s="30"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="33"/>
+    </row>
+    <row r="29" spans="2:12">
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="33"/>
+    </row>
+    <row r="30" spans="2:12">
+      <c r="B30" s="30"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="33"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D2" location="Index!A1" display="BACK to Index"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="11.375" customWidth="1"/>
+    <col min="12" max="12" width="54.875" customWidth="1"/>
+    <col min="258" max="258" width="11.375" customWidth="1"/>
+    <col min="514" max="514" width="11.375" customWidth="1"/>
+    <col min="770" max="770" width="11.375" customWidth="1"/>
+    <col min="1026" max="1026" width="11.375" customWidth="1"/>
+    <col min="1282" max="1282" width="11.375" customWidth="1"/>
+    <col min="1538" max="1538" width="11.375" customWidth="1"/>
+    <col min="1794" max="1794" width="11.375" customWidth="1"/>
+    <col min="2050" max="2050" width="11.375" customWidth="1"/>
+    <col min="2306" max="2306" width="11.375" customWidth="1"/>
+    <col min="2562" max="2562" width="11.375" customWidth="1"/>
+    <col min="2818" max="2818" width="11.375" customWidth="1"/>
+    <col min="3074" max="3074" width="11.375" customWidth="1"/>
+    <col min="3330" max="3330" width="11.375" customWidth="1"/>
+    <col min="3586" max="3586" width="11.375" customWidth="1"/>
+    <col min="3842" max="3842" width="11.375" customWidth="1"/>
+    <col min="4098" max="4098" width="11.375" customWidth="1"/>
+    <col min="4354" max="4354" width="11.375" customWidth="1"/>
+    <col min="4610" max="4610" width="11.375" customWidth="1"/>
+    <col min="4866" max="4866" width="11.375" customWidth="1"/>
+    <col min="5122" max="5122" width="11.375" customWidth="1"/>
+    <col min="5378" max="5378" width="11.375" customWidth="1"/>
+    <col min="5634" max="5634" width="11.375" customWidth="1"/>
+    <col min="5890" max="5890" width="11.375" customWidth="1"/>
+    <col min="6146" max="6146" width="11.375" customWidth="1"/>
+    <col min="6402" max="6402" width="11.375" customWidth="1"/>
+    <col min="6658" max="6658" width="11.375" customWidth="1"/>
+    <col min="6914" max="6914" width="11.375" customWidth="1"/>
+    <col min="7170" max="7170" width="11.375" customWidth="1"/>
+    <col min="7426" max="7426" width="11.375" customWidth="1"/>
+    <col min="7682" max="7682" width="11.375" customWidth="1"/>
+    <col min="7938" max="7938" width="11.375" customWidth="1"/>
+    <col min="8194" max="8194" width="11.375" customWidth="1"/>
+    <col min="8450" max="8450" width="11.375" customWidth="1"/>
+    <col min="8706" max="8706" width="11.375" customWidth="1"/>
+    <col min="8962" max="8962" width="11.375" customWidth="1"/>
+    <col min="9218" max="9218" width="11.375" customWidth="1"/>
+    <col min="9474" max="9474" width="11.375" customWidth="1"/>
+    <col min="9730" max="9730" width="11.375" customWidth="1"/>
+    <col min="9986" max="9986" width="11.375" customWidth="1"/>
+    <col min="10242" max="10242" width="11.375" customWidth="1"/>
+    <col min="10498" max="10498" width="11.375" customWidth="1"/>
+    <col min="10754" max="10754" width="11.375" customWidth="1"/>
+    <col min="11010" max="11010" width="11.375" customWidth="1"/>
+    <col min="11266" max="11266" width="11.375" customWidth="1"/>
+    <col min="11522" max="11522" width="11.375" customWidth="1"/>
+    <col min="11778" max="11778" width="11.375" customWidth="1"/>
+    <col min="12034" max="12034" width="11.375" customWidth="1"/>
+    <col min="12290" max="12290" width="11.375" customWidth="1"/>
+    <col min="12546" max="12546" width="11.375" customWidth="1"/>
+    <col min="12802" max="12802" width="11.375" customWidth="1"/>
+    <col min="13058" max="13058" width="11.375" customWidth="1"/>
+    <col min="13314" max="13314" width="11.375" customWidth="1"/>
+    <col min="13570" max="13570" width="11.375" customWidth="1"/>
+    <col min="13826" max="13826" width="11.375" customWidth="1"/>
+    <col min="14082" max="14082" width="11.375" customWidth="1"/>
+    <col min="14338" max="14338" width="11.375" customWidth="1"/>
+    <col min="14594" max="14594" width="11.375" customWidth="1"/>
+    <col min="14850" max="14850" width="11.375" customWidth="1"/>
+    <col min="15106" max="15106" width="11.375" customWidth="1"/>
+    <col min="15362" max="15362" width="11.375" customWidth="1"/>
+    <col min="15618" max="15618" width="11.375" customWidth="1"/>
+    <col min="15874" max="15874" width="11.375" customWidth="1"/>
+    <col min="16130" max="16130" width="11.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="20.25">
+      <c r="A1" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="20.25">
+      <c r="A2" s="20"/>
+      <c r="B2" s="21"/>
+      <c r="D2" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="18.75">
+      <c r="B3" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="24"/>
+      <c r="G3" s="25"/>
+    </row>
+    <row r="4" spans="1:12" ht="15.75">
+      <c r="B4" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="24"/>
+      <c r="G4" s="25"/>
+    </row>
+    <row r="5" spans="1:12" ht="15.75">
+      <c r="B5" s="22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15.75">
+      <c r="B6" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="27">
+        <v>1</v>
+      </c>
+      <c r="G6" s="24"/>
+    </row>
+    <row r="7" spans="1:12" ht="15.75">
+      <c r="B7" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>515</v>
+      </c>
+      <c r="G7" s="24"/>
+    </row>
+    <row r="8" spans="1:12" ht="15.75">
+      <c r="A8" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="24"/>
+      <c r="G8" s="24"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="B9" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" s="29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="B10" s="30" t="s">
+        <v>516</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="30">
+        <v>40</v>
+      </c>
+      <c r="F10" s="30"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="30"/>
+      <c r="J10" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" s="33" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="B11" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="30">
+        <v>40</v>
+      </c>
+      <c r="F11" s="30"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" s="33"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="B12" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="30">
+        <v>40</v>
+      </c>
+      <c r="F12" s="30"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="B13" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="30">
+        <v>100</v>
+      </c>
+      <c r="F13" s="30"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="33"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="B14" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="30">
+        <v>20</v>
+      </c>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="33"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="B15" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="30">
+        <v>40</v>
+      </c>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="33" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="B16" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="30">
+        <v>40</v>
+      </c>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12">
+      <c r="B17" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="30">
+        <v>40</v>
+      </c>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12">
+      <c r="B18" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="30">
+        <v>40</v>
+      </c>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12">
+      <c r="B19" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="30">
+        <v>40</v>
+      </c>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12">
+      <c r="B20" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="30">
+        <v>40</v>
+      </c>
+      <c r="F20" s="34"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12">
+      <c r="B21" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="I21" s="30">
+        <v>0</v>
+      </c>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12">
+      <c r="B22" s="34" t="s">
+        <v>280</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="D22" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="I22" s="35">
+        <v>0</v>
+      </c>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="33" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12">
+      <c r="B23" s="30"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="33"/>
+    </row>
+    <row r="24" spans="2:12">
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="33"/>
+    </row>
+    <row r="25" spans="2:12">
+      <c r="B25" s="30"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="33"/>
+    </row>
+    <row r="26" spans="2:12">
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="33"/>
+    </row>
+    <row r="27" spans="2:12">
+      <c r="B27" s="30"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="33"/>
+    </row>
+    <row r="28" spans="2:12">
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="33"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D2" location="Index!A1" display="BACK to Index"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="19.625" customWidth="1"/>
@@ -15085,7 +16579,7 @@
         <v>28</v>
       </c>
       <c r="B1" s="55" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="20.25">
@@ -15134,7 +16628,7 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="G7" s="24"/>
     </row>
@@ -15182,13 +16676,13 @@
     </row>
     <row r="10" spans="1:12">
       <c r="B10" s="51" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E10" s="34">
         <v>40</v>
@@ -15209,13 +16703,13 @@
     </row>
     <row r="11" spans="1:12">
       <c r="B11" s="51" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E11" s="34">
         <v>40</v>
@@ -15227,7 +16721,7 @@
       <c r="J11" s="33"/>
       <c r="K11" s="33"/>
       <c r="L11" s="33" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -15473,602 +16967,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:C22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
-  <cols>
-    <col min="2" max="2" width="11.375" customWidth="1"/>
-    <col min="12" max="12" width="54.875" customWidth="1"/>
-    <col min="258" max="258" width="11.375" customWidth="1"/>
-    <col min="514" max="514" width="11.375" customWidth="1"/>
-    <col min="770" max="770" width="11.375" customWidth="1"/>
-    <col min="1026" max="1026" width="11.375" customWidth="1"/>
-    <col min="1282" max="1282" width="11.375" customWidth="1"/>
-    <col min="1538" max="1538" width="11.375" customWidth="1"/>
-    <col min="1794" max="1794" width="11.375" customWidth="1"/>
-    <col min="2050" max="2050" width="11.375" customWidth="1"/>
-    <col min="2306" max="2306" width="11.375" customWidth="1"/>
-    <col min="2562" max="2562" width="11.375" customWidth="1"/>
-    <col min="2818" max="2818" width="11.375" customWidth="1"/>
-    <col min="3074" max="3074" width="11.375" customWidth="1"/>
-    <col min="3330" max="3330" width="11.375" customWidth="1"/>
-    <col min="3586" max="3586" width="11.375" customWidth="1"/>
-    <col min="3842" max="3842" width="11.375" customWidth="1"/>
-    <col min="4098" max="4098" width="11.375" customWidth="1"/>
-    <col min="4354" max="4354" width="11.375" customWidth="1"/>
-    <col min="4610" max="4610" width="11.375" customWidth="1"/>
-    <col min="4866" max="4866" width="11.375" customWidth="1"/>
-    <col min="5122" max="5122" width="11.375" customWidth="1"/>
-    <col min="5378" max="5378" width="11.375" customWidth="1"/>
-    <col min="5634" max="5634" width="11.375" customWidth="1"/>
-    <col min="5890" max="5890" width="11.375" customWidth="1"/>
-    <col min="6146" max="6146" width="11.375" customWidth="1"/>
-    <col min="6402" max="6402" width="11.375" customWidth="1"/>
-    <col min="6658" max="6658" width="11.375" customWidth="1"/>
-    <col min="6914" max="6914" width="11.375" customWidth="1"/>
-    <col min="7170" max="7170" width="11.375" customWidth="1"/>
-    <col min="7426" max="7426" width="11.375" customWidth="1"/>
-    <col min="7682" max="7682" width="11.375" customWidth="1"/>
-    <col min="7938" max="7938" width="11.375" customWidth="1"/>
-    <col min="8194" max="8194" width="11.375" customWidth="1"/>
-    <col min="8450" max="8450" width="11.375" customWidth="1"/>
-    <col min="8706" max="8706" width="11.375" customWidth="1"/>
-    <col min="8962" max="8962" width="11.375" customWidth="1"/>
-    <col min="9218" max="9218" width="11.375" customWidth="1"/>
-    <col min="9474" max="9474" width="11.375" customWidth="1"/>
-    <col min="9730" max="9730" width="11.375" customWidth="1"/>
-    <col min="9986" max="9986" width="11.375" customWidth="1"/>
-    <col min="10242" max="10242" width="11.375" customWidth="1"/>
-    <col min="10498" max="10498" width="11.375" customWidth="1"/>
-    <col min="10754" max="10754" width="11.375" customWidth="1"/>
-    <col min="11010" max="11010" width="11.375" customWidth="1"/>
-    <col min="11266" max="11266" width="11.375" customWidth="1"/>
-    <col min="11522" max="11522" width="11.375" customWidth="1"/>
-    <col min="11778" max="11778" width="11.375" customWidth="1"/>
-    <col min="12034" max="12034" width="11.375" customWidth="1"/>
-    <col min="12290" max="12290" width="11.375" customWidth="1"/>
-    <col min="12546" max="12546" width="11.375" customWidth="1"/>
-    <col min="12802" max="12802" width="11.375" customWidth="1"/>
-    <col min="13058" max="13058" width="11.375" customWidth="1"/>
-    <col min="13314" max="13314" width="11.375" customWidth="1"/>
-    <col min="13570" max="13570" width="11.375" customWidth="1"/>
-    <col min="13826" max="13826" width="11.375" customWidth="1"/>
-    <col min="14082" max="14082" width="11.375" customWidth="1"/>
-    <col min="14338" max="14338" width="11.375" customWidth="1"/>
-    <col min="14594" max="14594" width="11.375" customWidth="1"/>
-    <col min="14850" max="14850" width="11.375" customWidth="1"/>
-    <col min="15106" max="15106" width="11.375" customWidth="1"/>
-    <col min="15362" max="15362" width="11.375" customWidth="1"/>
-    <col min="15618" max="15618" width="11.375" customWidth="1"/>
-    <col min="15874" max="15874" width="11.375" customWidth="1"/>
-    <col min="16130" max="16130" width="11.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="20.25">
-      <c r="A1" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="20.25">
-      <c r="A2" s="20"/>
-      <c r="B2" s="21"/>
-      <c r="D2" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="18.75">
-      <c r="B3" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="24"/>
-      <c r="G3" s="25"/>
-    </row>
-    <row r="4" spans="1:12" ht="15.75">
-      <c r="B4" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="24"/>
-      <c r="G4" s="25"/>
-    </row>
-    <row r="5" spans="1:12" ht="15.75">
-      <c r="B5" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="15.75">
-      <c r="B6" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="27">
-        <v>1</v>
-      </c>
-      <c r="G6" s="24"/>
-    </row>
-    <row r="7" spans="1:12" ht="15.75">
-      <c r="B7" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>513</v>
-      </c>
-      <c r="G7" s="24"/>
-    </row>
-    <row r="8" spans="1:12" ht="15.75">
-      <c r="A8" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="24"/>
-      <c r="G8" s="24"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="B9" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="L9" s="29" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="B10" s="30" t="s">
-        <v>514</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="30">
-        <v>40</v>
-      </c>
-      <c r="F10" s="30"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="I10" s="30"/>
-      <c r="J10" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="K10" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="L10" s="33" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="B11" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="30">
-        <v>40</v>
-      </c>
-      <c r="F11" s="30"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="I11" s="33"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="B12" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="30">
-        <v>40</v>
-      </c>
-      <c r="F12" s="30"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="B13" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="30">
-        <v>100</v>
-      </c>
-      <c r="F13" s="30"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="33"/>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="B14" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="30">
-        <v>20</v>
-      </c>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="33"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="B15" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="30">
-        <v>40</v>
-      </c>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="33" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="B16" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="C16" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="30">
-        <v>40</v>
-      </c>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="33" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12">
-      <c r="B17" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="C17" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="30">
-        <v>40</v>
-      </c>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="33" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12">
-      <c r="B18" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="C18" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="30">
-        <v>40</v>
-      </c>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="33" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12">
-      <c r="B19" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="C19" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="30">
-        <v>40</v>
-      </c>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="33" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12">
-      <c r="B20" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="C20" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" s="30">
-        <v>40</v>
-      </c>
-      <c r="F20" s="34"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="33" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12">
-      <c r="B21" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="C21" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="I21" s="30">
-        <v>0</v>
-      </c>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="33" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12">
-      <c r="B22" s="34" t="s">
-        <v>280</v>
-      </c>
-      <c r="C22" s="32" t="s">
-        <v>281</v>
-      </c>
-      <c r="D22" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="I22" s="35">
-        <v>0</v>
-      </c>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="33" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12">
-      <c r="B23" s="30"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="33"/>
-    </row>
-    <row r="24" spans="2:12">
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="33"/>
-    </row>
-    <row r="25" spans="2:12">
-      <c r="B25" s="30"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="33"/>
-    </row>
-    <row r="26" spans="2:12">
-      <c r="B26" s="34"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="33"/>
-    </row>
-    <row r="27" spans="2:12">
-      <c r="B27" s="30"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="33"/>
-    </row>
-    <row r="28" spans="2:12">
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="33"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="D2" location="Index!A1" display="BACK to Index"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="19.625" customWidth="1"/>
@@ -16143,7 +17050,7 @@
         <v>28</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="20.25">
@@ -16192,7 +17099,7 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="G7" s="24"/>
     </row>
@@ -16240,13 +17147,13 @@
     </row>
     <row r="10" spans="1:12">
       <c r="B10" s="34" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="C10" s="32" t="s">
         <v>337</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E10" s="34">
         <v>40</v>
@@ -16269,13 +17176,13 @@
     </row>
     <row r="11" spans="1:12">
       <c r="B11" s="34" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="E11" s="34">
         <v>100</v>
@@ -16287,15 +17194,15 @@
       <c r="J11" s="33"/>
       <c r="K11" s="33"/>
       <c r="L11" s="32" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="B12" s="34" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="D12" s="34" t="s">
         <v>286</v>
@@ -16310,15 +17217,15 @@
       <c r="J12" s="30"/>
       <c r="K12" s="33"/>
       <c r="L12" s="33" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="B13" s="34" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D13" s="34" t="s">
         <v>286</v>
@@ -16333,7 +17240,7 @@
       <c r="J13" s="30"/>
       <c r="K13" s="33"/>
       <c r="L13" s="33" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -16553,15 +17460,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10:L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="19.625" customWidth="1"/>
@@ -16636,7 +17543,7 @@
         <v>28</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="20.25">
@@ -16685,7 +17592,7 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="G7" s="24"/>
     </row>
@@ -16733,13 +17640,13 @@
     </row>
     <row r="10" spans="1:12">
       <c r="B10" s="34" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E10" s="34">
         <v>40</v>
@@ -16757,18 +17664,18 @@
         <v>312</v>
       </c>
       <c r="L10" s="33" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="B11" s="34" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E11" s="34">
         <v>40</v>
@@ -16782,18 +17689,18 @@
       <c r="J11" s="33"/>
       <c r="K11" s="33"/>
       <c r="L11" s="33" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="B12" s="34" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E12" s="34">
         <v>40</v>
@@ -16805,18 +17712,18 @@
       <c r="J12" s="33"/>
       <c r="K12" s="33"/>
       <c r="L12" s="32" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="B13" s="34" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="E13" s="34"/>
       <c r="F13" s="30"/>
@@ -16826,7 +17733,7 @@
       <c r="J13" s="30"/>
       <c r="K13" s="33"/>
       <c r="L13" s="33" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -17112,15 +18019,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="19.625" customWidth="1"/>
@@ -17195,7 +18102,7 @@
         <v>28</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="20.25">
@@ -17244,7 +18151,7 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G7" s="24"/>
     </row>
@@ -17292,13 +18199,13 @@
     </row>
     <row r="10" spans="1:12">
       <c r="B10" s="34" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E10" s="34">
         <v>40</v>
@@ -17316,18 +18223,18 @@
         <v>43</v>
       </c>
       <c r="L10" s="33" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="B11" s="34" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E11" s="34">
         <v>40</v>
@@ -17341,18 +18248,18 @@
       <c r="J11" s="33"/>
       <c r="K11" s="33"/>
       <c r="L11" s="33" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="B12" s="34" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E12" s="34">
         <v>40</v>
@@ -17366,7 +18273,7 @@
       <c r="J12" s="33"/>
       <c r="K12" s="33"/>
       <c r="L12" s="33" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -17374,7 +18281,7 @@
         <v>149</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="D13" s="34" t="s">
         <v>286</v>
@@ -17402,7 +18309,7 @@
         <v>133</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="E14" s="30">
         <v>40</v>
@@ -17636,15 +18543,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26:L28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="19.625" customWidth="1"/>
@@ -17719,7 +18626,7 @@
         <v>28</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="20.25">
@@ -17768,7 +18675,7 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="G7" s="24"/>
     </row>
@@ -17816,13 +18723,13 @@
     </row>
     <row r="10" spans="1:12">
       <c r="B10" s="34" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E10" s="34">
         <v>40</v>
@@ -17840,18 +18747,18 @@
         <v>312</v>
       </c>
       <c r="L10" s="33" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="B11" s="34" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E11" s="34">
         <v>40</v>
@@ -17865,18 +18772,18 @@
       <c r="J11" s="33"/>
       <c r="K11" s="33"/>
       <c r="L11" s="33" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="B12" s="34" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E12" s="34">
         <v>40</v>
@@ -17888,18 +18795,18 @@
       <c r="J12" s="33"/>
       <c r="K12" s="33"/>
       <c r="L12" s="32" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="B13" s="34" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="E13" s="34"/>
       <c r="F13" s="30"/>
@@ -17909,18 +18816,18 @@
       <c r="J13" s="30"/>
       <c r="K13" s="33"/>
       <c r="L13" s="33" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="B14" s="34" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="E14" s="34"/>
       <c r="F14" s="30"/>
@@ -17930,18 +18837,18 @@
       <c r="J14" s="30"/>
       <c r="K14" s="33"/>
       <c r="L14" s="33" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="B15" s="34" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C15" s="33" t="s">
+        <v>415</v>
+      </c>
+      <c r="D15" s="34" t="s">
         <v>413</v>
-      </c>
-      <c r="D15" s="34" t="s">
-        <v>411</v>
       </c>
       <c r="E15" s="34"/>
       <c r="F15" s="30"/>
@@ -17951,18 +18858,18 @@
       <c r="J15" s="30"/>
       <c r="K15" s="33"/>
       <c r="L15" s="33" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="B16" s="34" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="E16" s="34"/>
       <c r="F16" s="30"/>
@@ -17972,18 +18879,18 @@
       <c r="J16" s="30"/>
       <c r="K16" s="33"/>
       <c r="L16" s="33" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="17" spans="2:12">
       <c r="B17" s="34" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="D17" s="34" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="E17" s="30"/>
       <c r="F17" s="30"/>
@@ -17993,24 +18900,24 @@
       <c r="J17" s="30"/>
       <c r="K17" s="33"/>
       <c r="L17" s="33" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="18" spans="2:12">
       <c r="B18" s="30" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="E18" s="30"/>
       <c r="F18" s="30"/>
       <c r="G18" s="32"/>
       <c r="H18" s="33" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="I18" s="30">
         <v>0</v>
@@ -18018,24 +18925,24 @@
       <c r="J18" s="30"/>
       <c r="K18" s="30"/>
       <c r="L18" s="33" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="19" spans="2:12">
       <c r="B19" s="30" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="D19" s="34" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="E19" s="34"/>
       <c r="F19" s="30"/>
       <c r="G19" s="30"/>
       <c r="H19" s="33" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="I19" s="30">
         <v>0</v>
@@ -18043,24 +18950,24 @@
       <c r="J19" s="30"/>
       <c r="K19" s="30"/>
       <c r="L19" s="33" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="20" spans="2:12">
       <c r="B20" s="30" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="D20" s="34" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="E20" s="34"/>
       <c r="F20" s="30"/>
       <c r="G20" s="30"/>
       <c r="H20" s="33" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="I20" s="30">
         <v>0</v>
@@ -18068,18 +18975,18 @@
       <c r="J20" s="30"/>
       <c r="K20" s="30"/>
       <c r="L20" s="33" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="21" spans="2:12">
       <c r="B21" s="30" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C21" s="33" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="D21" s="34" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="E21" s="34">
         <v>100</v>
@@ -18091,15 +18998,15 @@
       <c r="J21" s="30"/>
       <c r="K21" s="30"/>
       <c r="L21" s="33" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="22" spans="2:12">
       <c r="B22" s="30" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C22" s="33" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="D22" s="34" t="s">
         <v>286</v>
@@ -18114,15 +19021,15 @@
       <c r="J22" s="30"/>
       <c r="K22" s="30"/>
       <c r="L22" s="33" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row r="23" spans="2:12">
       <c r="B23" s="30" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="C23" s="33" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="D23" s="34" t="s">
         <v>286</v>
@@ -18137,18 +19044,18 @@
       <c r="J23" s="30"/>
       <c r="K23" s="30"/>
       <c r="L23" s="33" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="24" spans="2:12">
       <c r="B24" s="30" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="C24" s="33" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="E24" s="30"/>
       <c r="F24" s="30"/>
@@ -18158,15 +19065,15 @@
       <c r="J24" s="30"/>
       <c r="K24" s="30"/>
       <c r="L24" s="33" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
     </row>
     <row r="25" spans="2:12">
       <c r="B25" s="30" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="C25" s="33" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="D25" s="30" t="s">
         <v>286</v>
@@ -18181,47 +19088,77 @@
       <c r="J25" s="30"/>
       <c r="K25" s="30"/>
       <c r="L25" s="33" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="26" spans="2:12">
-      <c r="B26" s="34"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="33"/>
+      <c r="B26" s="51" t="s">
+        <v>758</v>
+      </c>
+      <c r="C26" s="54" t="s">
+        <v>759</v>
+      </c>
+      <c r="D26" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" s="51">
+        <v>100</v>
+      </c>
+      <c r="F26" s="51"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="58"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="58"/>
+      <c r="L26" s="54" t="s">
+        <v>759</v>
+      </c>
     </row>
     <row r="27" spans="2:12">
-      <c r="B27" s="30"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="33"/>
+      <c r="B27" s="53" t="s">
+        <v>760</v>
+      </c>
+      <c r="C27" s="52" t="s">
+        <v>761</v>
+      </c>
+      <c r="D27" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" s="51">
+        <v>100</v>
+      </c>
+      <c r="F27" s="53"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="53"/>
+      <c r="J27" s="53"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="52" t="s">
+        <v>761</v>
+      </c>
     </row>
     <row r="28" spans="2:12">
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="33"/>
+      <c r="B28" s="51" t="s">
+        <v>762</v>
+      </c>
+      <c r="C28" s="54" t="s">
+        <v>763</v>
+      </c>
+      <c r="D28" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" s="51">
+        <v>100</v>
+      </c>
+      <c r="F28" s="51"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="58"/>
+      <c r="J28" s="58"/>
+      <c r="K28" s="58"/>
+      <c r="L28" s="54" t="s">
+        <v>763</v>
+      </c>
     </row>
     <row r="29" spans="2:12">
       <c r="B29" s="30"/>
@@ -18310,15 +19247,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="19.625" customWidth="1"/>
@@ -18393,7 +19330,7 @@
         <v>28</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="20.25">
@@ -18442,7 +19379,7 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="G7" s="24"/>
     </row>
@@ -18490,13 +19427,13 @@
     </row>
     <row r="10" spans="1:12">
       <c r="B10" s="34" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E10" s="34">
         <v>40</v>
@@ -18514,18 +19451,18 @@
         <v>43</v>
       </c>
       <c r="L10" s="33" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="B11" s="34" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E11" s="34">
         <v>40</v>
@@ -18539,18 +19476,18 @@
       <c r="J11" s="33"/>
       <c r="K11" s="33"/>
       <c r="L11" s="33" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="B12" s="34" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E12" s="34">
         <v>40</v>
@@ -18564,15 +19501,15 @@
       <c r="J12" s="33"/>
       <c r="K12" s="33"/>
       <c r="L12" s="33" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="B13" s="34" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="D13" s="34" t="s">
         <v>286</v>
@@ -18587,7 +19524,7 @@
       <c r="J13" s="30"/>
       <c r="K13" s="33"/>
       <c r="L13" s="33" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -18598,7 +19535,7 @@
         <v>133</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="E14" s="30">
         <v>40</v>
@@ -18832,15 +19769,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="19.625" customWidth="1"/>
@@ -18915,7 +19852,7 @@
         <v>28</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="20.25">
@@ -18964,7 +19901,7 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="G7" s="24"/>
     </row>
@@ -19012,13 +19949,13 @@
     </row>
     <row r="10" spans="1:12">
       <c r="B10" s="34" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E10" s="34">
         <v>40</v>
@@ -19036,18 +19973,18 @@
         <v>43</v>
       </c>
       <c r="L10" s="33" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="B11" s="34" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E11" s="34">
         <v>40</v>
@@ -19061,18 +19998,18 @@
       <c r="J11" s="33"/>
       <c r="K11" s="33"/>
       <c r="L11" s="33" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="B12" s="34" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E12" s="34">
         <v>40</v>
@@ -19086,15 +20023,15 @@
       <c r="J12" s="33"/>
       <c r="K12" s="33"/>
       <c r="L12" s="33" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="B13" s="34" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="D13" s="34" t="s">
         <v>286</v>
@@ -19109,7 +20046,7 @@
       <c r="J13" s="30"/>
       <c r="K13" s="33"/>
       <c r="L13" s="33" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -19120,7 +20057,7 @@
         <v>133</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="E14" s="30">
         <v>40</v>
@@ -19354,15 +20291,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="19.625" customWidth="1"/>
@@ -19437,7 +20374,7 @@
         <v>28</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="20.25">
@@ -19486,7 +20423,7 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="G7" s="24"/>
     </row>
@@ -19534,13 +20471,13 @@
     </row>
     <row r="10" spans="1:12">
       <c r="B10" s="34" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E10" s="34">
         <v>40</v>
@@ -19558,18 +20495,18 @@
         <v>43</v>
       </c>
       <c r="L10" s="33" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="B11" s="34" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E11" s="34">
         <v>40</v>
@@ -19583,18 +20520,18 @@
       <c r="J11" s="33"/>
       <c r="K11" s="33"/>
       <c r="L11" s="33" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="B12" s="34" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E12" s="34">
         <v>40</v>
@@ -19608,18 +20545,18 @@
       <c r="J12" s="33"/>
       <c r="K12" s="33"/>
       <c r="L12" s="33" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="B13" s="34" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="C13" s="32" t="s">
         <v>311</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E13" s="34">
         <v>40</v>
@@ -19654,15 +20591,15 @@
       <c r="J14" s="30"/>
       <c r="K14" s="33"/>
       <c r="L14" s="33" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="B15" s="34" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="D15" s="34" t="s">
         <v>319</v>
@@ -19683,7 +20620,7 @@
         <v>321</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="D16" s="30" t="s">
         <v>302</v>
@@ -19703,10 +20640,10 @@
     </row>
     <row r="17" spans="2:12">
       <c r="B17" s="30" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="D17" s="34" t="s">
         <v>302</v>
@@ -19719,18 +20656,18 @@
       <c r="J17" s="30"/>
       <c r="K17" s="30"/>
       <c r="L17" s="33" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="18" spans="2:12">
       <c r="B18" s="30" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="D18" s="34" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="E18" s="34">
         <v>500</v>
@@ -19742,15 +20679,15 @@
       <c r="J18" s="30"/>
       <c r="K18" s="30"/>
       <c r="L18" s="33" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="19" spans="2:12">
       <c r="B19" s="30" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="D19" s="34" t="s">
         <v>302</v>
@@ -19765,7 +20702,7 @@
       <c r="J19" s="30"/>
       <c r="K19" s="30"/>
       <c r="L19" s="33" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="20" spans="2:12">
@@ -19933,15 +20870,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="19.625" customWidth="1"/>
@@ -20016,7 +20953,7 @@
         <v>28</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="20.25">
@@ -20065,7 +21002,7 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="G7" s="24"/>
     </row>
@@ -20113,13 +21050,13 @@
     </row>
     <row r="10" spans="1:12" s="50" customFormat="1">
       <c r="B10" s="56" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="C10" s="57" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="E10" s="30">
         <v>40</v>
@@ -20127,26 +21064,26 @@
       <c r="F10" s="30"/>
       <c r="G10" s="33"/>
       <c r="H10" s="33" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="I10" s="30"/>
       <c r="J10" s="33" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="K10" s="33" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="L10" s="57"/>
     </row>
     <row r="11" spans="1:12">
       <c r="B11" s="34" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E11" s="34">
         <v>40</v>
@@ -20160,18 +21097,18 @@
       <c r="J11" s="33"/>
       <c r="K11" s="33"/>
       <c r="L11" s="33" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="B12" s="34" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E12" s="34">
         <v>40</v>
@@ -20185,7 +21122,7 @@
       <c r="J12" s="33"/>
       <c r="K12" s="33"/>
       <c r="L12" s="33" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -20196,7 +21133,7 @@
         <v>311</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E13" s="34">
         <v>40</v>
@@ -20215,13 +21152,13 @@
     </row>
     <row r="14" spans="1:12">
       <c r="B14" s="34" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E14" s="30">
         <v>200</v>
@@ -20233,15 +21170,15 @@
       <c r="J14" s="30"/>
       <c r="K14" s="33"/>
       <c r="L14" s="33" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="B15" s="34" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="D15" s="34" t="s">
         <v>39</v>
@@ -20256,18 +21193,18 @@
       <c r="J15" s="30"/>
       <c r="K15" s="33"/>
       <c r="L15" s="33" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="B16" s="34" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="C16" s="33" t="s">
+        <v>507</v>
+      </c>
+      <c r="D16" s="34" t="s">
         <v>505</v>
-      </c>
-      <c r="D16" s="34" t="s">
-        <v>503</v>
       </c>
       <c r="E16" s="30">
         <v>500</v>
@@ -20279,18 +21216,18 @@
       <c r="J16" s="30"/>
       <c r="K16" s="30"/>
       <c r="L16" s="33" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="17" spans="2:12">
       <c r="B17" s="30" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="D17" s="34" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="E17" s="34"/>
       <c r="F17" s="30"/>
@@ -20300,18 +21237,18 @@
       <c r="J17" s="30"/>
       <c r="K17" s="30"/>
       <c r="L17" s="33" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
     </row>
     <row r="18" spans="2:12">
       <c r="B18" s="53" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="C18" s="52" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="D18" s="51" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="E18" s="51">
         <v>50</v>
@@ -20323,15 +21260,15 @@
       <c r="J18" s="53"/>
       <c r="K18" s="53"/>
       <c r="L18" s="52" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
     </row>
     <row r="19" spans="2:12">
       <c r="B19" s="53" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="C19" s="52" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
       <c r="D19" s="51" t="s">
         <v>39</v>
@@ -20346,7 +21283,7 @@
       <c r="J19" s="53"/>
       <c r="K19" s="53"/>
       <c r="L19" s="52" t="s">
-        <v>719</v>
+        <v>723</v>
       </c>
     </row>
     <row r="20" spans="2:12">
@@ -20514,15 +21451,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="19.625" customWidth="1"/>
@@ -20597,7 +21534,7 @@
         <v>28</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="20.25">
@@ -20646,7 +21583,7 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="G7" s="24"/>
     </row>
@@ -20694,13 +21631,13 @@
     </row>
     <row r="10" spans="1:12">
       <c r="B10" s="34" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E10" s="34">
         <v>40</v>
@@ -20718,18 +21655,18 @@
         <v>312</v>
       </c>
       <c r="L10" s="33" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="B11" s="34" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E11" s="34">
         <v>40</v>
@@ -20743,18 +21680,18 @@
       <c r="J11" s="33"/>
       <c r="K11" s="33"/>
       <c r="L11" s="33" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="B12" s="34" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="E12" s="34"/>
       <c r="F12" s="34"/>
@@ -20766,18 +21703,18 @@
       <c r="J12" s="33"/>
       <c r="K12" s="33"/>
       <c r="L12" s="33" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="B13" s="34" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="E13" s="34"/>
       <c r="F13" s="34"/>
@@ -20787,18 +21724,18 @@
       <c r="J13" s="33"/>
       <c r="K13" s="33"/>
       <c r="L13" s="32" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="B14" s="34" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="E14" s="34"/>
       <c r="F14" s="34"/>
@@ -20808,18 +21745,18 @@
       <c r="J14" s="33"/>
       <c r="K14" s="33"/>
       <c r="L14" s="32" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="B15" s="34" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="D15" s="34" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="E15" s="30">
         <v>40</v>
@@ -20831,18 +21768,18 @@
       <c r="J15" s="30"/>
       <c r="K15" s="33"/>
       <c r="L15" s="33" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="16" spans="1:12" s="50" customFormat="1">
       <c r="B16" s="51" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="C16" s="52" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="D16" s="51" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="E16" s="53">
         <v>200</v>
@@ -21072,15 +22009,495 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="21.375" customWidth="1"/>
+    <col min="12" max="12" width="54.875" customWidth="1"/>
+    <col min="258" max="258" width="11.375" customWidth="1"/>
+    <col min="514" max="514" width="11.375" customWidth="1"/>
+    <col min="770" max="770" width="11.375" customWidth="1"/>
+    <col min="1026" max="1026" width="11.375" customWidth="1"/>
+    <col min="1282" max="1282" width="11.375" customWidth="1"/>
+    <col min="1538" max="1538" width="11.375" customWidth="1"/>
+    <col min="1794" max="1794" width="11.375" customWidth="1"/>
+    <col min="2050" max="2050" width="11.375" customWidth="1"/>
+    <col min="2306" max="2306" width="11.375" customWidth="1"/>
+    <col min="2562" max="2562" width="11.375" customWidth="1"/>
+    <col min="2818" max="2818" width="11.375" customWidth="1"/>
+    <col min="3074" max="3074" width="11.375" customWidth="1"/>
+    <col min="3330" max="3330" width="11.375" customWidth="1"/>
+    <col min="3586" max="3586" width="11.375" customWidth="1"/>
+    <col min="3842" max="3842" width="11.375" customWidth="1"/>
+    <col min="4098" max="4098" width="11.375" customWidth="1"/>
+    <col min="4354" max="4354" width="11.375" customWidth="1"/>
+    <col min="4610" max="4610" width="11.375" customWidth="1"/>
+    <col min="4866" max="4866" width="11.375" customWidth="1"/>
+    <col min="5122" max="5122" width="11.375" customWidth="1"/>
+    <col min="5378" max="5378" width="11.375" customWidth="1"/>
+    <col min="5634" max="5634" width="11.375" customWidth="1"/>
+    <col min="5890" max="5890" width="11.375" customWidth="1"/>
+    <col min="6146" max="6146" width="11.375" customWidth="1"/>
+    <col min="6402" max="6402" width="11.375" customWidth="1"/>
+    <col min="6658" max="6658" width="11.375" customWidth="1"/>
+    <col min="6914" max="6914" width="11.375" customWidth="1"/>
+    <col min="7170" max="7170" width="11.375" customWidth="1"/>
+    <col min="7426" max="7426" width="11.375" customWidth="1"/>
+    <col min="7682" max="7682" width="11.375" customWidth="1"/>
+    <col min="7938" max="7938" width="11.375" customWidth="1"/>
+    <col min="8194" max="8194" width="11.375" customWidth="1"/>
+    <col min="8450" max="8450" width="11.375" customWidth="1"/>
+    <col min="8706" max="8706" width="11.375" customWidth="1"/>
+    <col min="8962" max="8962" width="11.375" customWidth="1"/>
+    <col min="9218" max="9218" width="11.375" customWidth="1"/>
+    <col min="9474" max="9474" width="11.375" customWidth="1"/>
+    <col min="9730" max="9730" width="11.375" customWidth="1"/>
+    <col min="9986" max="9986" width="11.375" customWidth="1"/>
+    <col min="10242" max="10242" width="11.375" customWidth="1"/>
+    <col min="10498" max="10498" width="11.375" customWidth="1"/>
+    <col min="10754" max="10754" width="11.375" customWidth="1"/>
+    <col min="11010" max="11010" width="11.375" customWidth="1"/>
+    <col min="11266" max="11266" width="11.375" customWidth="1"/>
+    <col min="11522" max="11522" width="11.375" customWidth="1"/>
+    <col min="11778" max="11778" width="11.375" customWidth="1"/>
+    <col min="12034" max="12034" width="11.375" customWidth="1"/>
+    <col min="12290" max="12290" width="11.375" customWidth="1"/>
+    <col min="12546" max="12546" width="11.375" customWidth="1"/>
+    <col min="12802" max="12802" width="11.375" customWidth="1"/>
+    <col min="13058" max="13058" width="11.375" customWidth="1"/>
+    <col min="13314" max="13314" width="11.375" customWidth="1"/>
+    <col min="13570" max="13570" width="11.375" customWidth="1"/>
+    <col min="13826" max="13826" width="11.375" customWidth="1"/>
+    <col min="14082" max="14082" width="11.375" customWidth="1"/>
+    <col min="14338" max="14338" width="11.375" customWidth="1"/>
+    <col min="14594" max="14594" width="11.375" customWidth="1"/>
+    <col min="14850" max="14850" width="11.375" customWidth="1"/>
+    <col min="15106" max="15106" width="11.375" customWidth="1"/>
+    <col min="15362" max="15362" width="11.375" customWidth="1"/>
+    <col min="15618" max="15618" width="11.375" customWidth="1"/>
+    <col min="15874" max="15874" width="11.375" customWidth="1"/>
+    <col min="16130" max="16130" width="11.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="20.25">
+      <c r="A1" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="20.25">
+      <c r="A2" s="20"/>
+      <c r="B2" s="21"/>
+      <c r="D2" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="18.75">
+      <c r="B3" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="24"/>
+      <c r="G3" s="25"/>
+    </row>
+    <row r="4" spans="1:12" ht="15.75">
+      <c r="B4" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="24"/>
+      <c r="G4" s="25"/>
+    </row>
+    <row r="5" spans="1:12" ht="15.75">
+      <c r="B5" s="22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15.75">
+      <c r="B6" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="27">
+        <v>1</v>
+      </c>
+      <c r="G6" s="24"/>
+    </row>
+    <row r="7" spans="1:12" ht="15.75">
+      <c r="B7" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="24"/>
+    </row>
+    <row r="8" spans="1:12" ht="15.75">
+      <c r="A8" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="24"/>
+      <c r="G8" s="24"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="B9" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" s="29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="B10" s="30" t="s">
+        <v>519</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="30">
+        <v>40</v>
+      </c>
+      <c r="F10" s="30"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="30"/>
+      <c r="J10" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" s="33"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="B11" s="30" t="s">
+        <v>386</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>520</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="30">
+        <v>40</v>
+      </c>
+      <c r="F11" s="30"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="30"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="B12" s="30" t="s">
+        <v>518</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>521</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="30">
+        <v>40</v>
+      </c>
+      <c r="F12" s="30"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" s="33"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="B13" s="30"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="B14" s="30"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="33"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="B15" s="30"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="33"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="B16" s="30"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="33"/>
+    </row>
+    <row r="17" spans="2:12">
+      <c r="B17" s="30"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="33"/>
+    </row>
+    <row r="18" spans="2:12">
+      <c r="B18" s="30"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="33"/>
+    </row>
+    <row r="19" spans="2:12">
+      <c r="B19" s="30"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="33"/>
+    </row>
+    <row r="20" spans="2:12">
+      <c r="B20" s="30"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="33"/>
+    </row>
+    <row r="21" spans="2:12">
+      <c r="B21" s="34"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="33"/>
+    </row>
+    <row r="22" spans="2:12">
+      <c r="B22" s="30"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="33"/>
+    </row>
+    <row r="23" spans="2:12">
+      <c r="B23" s="34"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="33"/>
+    </row>
+    <row r="24" spans="2:12">
+      <c r="B24" s="30"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="33"/>
+    </row>
+    <row r="25" spans="2:12">
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="33"/>
+    </row>
+    <row r="26" spans="2:12">
+      <c r="B26" s="30"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="33"/>
+    </row>
+    <row r="27" spans="2:12">
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="33"/>
+    </row>
+    <row r="28" spans="2:12">
+      <c r="B28" s="30"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="33"/>
+    </row>
+    <row r="29" spans="2:12">
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="33"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D2" location="Index!A1" display="BACK to Index"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="19.625" customWidth="1"/>
@@ -21155,7 +22572,7 @@
         <v>28</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="20.25">
@@ -21204,7 +22621,7 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="G7" s="24"/>
     </row>
@@ -21252,13 +22669,13 @@
     </row>
     <row r="10" spans="1:12">
       <c r="B10" s="34" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E10" s="34">
         <v>40</v>
@@ -21276,18 +22693,18 @@
         <v>43</v>
       </c>
       <c r="L10" s="33" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="B11" s="34" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E11" s="34">
         <v>100</v>
@@ -21299,18 +22716,18 @@
       <c r="J11" s="33"/>
       <c r="K11" s="33"/>
       <c r="L11" s="33" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="B12" s="34" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E12" s="34">
         <v>500</v>
@@ -21322,24 +22739,24 @@
       <c r="J12" s="33"/>
       <c r="K12" s="33"/>
       <c r="L12" s="33" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="B13" s="34" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="E13" s="34"/>
       <c r="F13" s="34"/>
       <c r="G13" s="32"/>
       <c r="H13" s="32" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="I13" s="30">
         <v>0</v>
@@ -21347,7 +22764,7 @@
       <c r="J13" s="33"/>
       <c r="K13" s="33"/>
       <c r="L13" s="32" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -21607,495 +23024,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L29"/>
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
-  <cols>
-    <col min="2" max="2" width="21.375" customWidth="1"/>
-    <col min="12" max="12" width="54.875" customWidth="1"/>
-    <col min="258" max="258" width="11.375" customWidth="1"/>
-    <col min="514" max="514" width="11.375" customWidth="1"/>
-    <col min="770" max="770" width="11.375" customWidth="1"/>
-    <col min="1026" max="1026" width="11.375" customWidth="1"/>
-    <col min="1282" max="1282" width="11.375" customWidth="1"/>
-    <col min="1538" max="1538" width="11.375" customWidth="1"/>
-    <col min="1794" max="1794" width="11.375" customWidth="1"/>
-    <col min="2050" max="2050" width="11.375" customWidth="1"/>
-    <col min="2306" max="2306" width="11.375" customWidth="1"/>
-    <col min="2562" max="2562" width="11.375" customWidth="1"/>
-    <col min="2818" max="2818" width="11.375" customWidth="1"/>
-    <col min="3074" max="3074" width="11.375" customWidth="1"/>
-    <col min="3330" max="3330" width="11.375" customWidth="1"/>
-    <col min="3586" max="3586" width="11.375" customWidth="1"/>
-    <col min="3842" max="3842" width="11.375" customWidth="1"/>
-    <col min="4098" max="4098" width="11.375" customWidth="1"/>
-    <col min="4354" max="4354" width="11.375" customWidth="1"/>
-    <col min="4610" max="4610" width="11.375" customWidth="1"/>
-    <col min="4866" max="4866" width="11.375" customWidth="1"/>
-    <col min="5122" max="5122" width="11.375" customWidth="1"/>
-    <col min="5378" max="5378" width="11.375" customWidth="1"/>
-    <col min="5634" max="5634" width="11.375" customWidth="1"/>
-    <col min="5890" max="5890" width="11.375" customWidth="1"/>
-    <col min="6146" max="6146" width="11.375" customWidth="1"/>
-    <col min="6402" max="6402" width="11.375" customWidth="1"/>
-    <col min="6658" max="6658" width="11.375" customWidth="1"/>
-    <col min="6914" max="6914" width="11.375" customWidth="1"/>
-    <col min="7170" max="7170" width="11.375" customWidth="1"/>
-    <col min="7426" max="7426" width="11.375" customWidth="1"/>
-    <col min="7682" max="7682" width="11.375" customWidth="1"/>
-    <col min="7938" max="7938" width="11.375" customWidth="1"/>
-    <col min="8194" max="8194" width="11.375" customWidth="1"/>
-    <col min="8450" max="8450" width="11.375" customWidth="1"/>
-    <col min="8706" max="8706" width="11.375" customWidth="1"/>
-    <col min="8962" max="8962" width="11.375" customWidth="1"/>
-    <col min="9218" max="9218" width="11.375" customWidth="1"/>
-    <col min="9474" max="9474" width="11.375" customWidth="1"/>
-    <col min="9730" max="9730" width="11.375" customWidth="1"/>
-    <col min="9986" max="9986" width="11.375" customWidth="1"/>
-    <col min="10242" max="10242" width="11.375" customWidth="1"/>
-    <col min="10498" max="10498" width="11.375" customWidth="1"/>
-    <col min="10754" max="10754" width="11.375" customWidth="1"/>
-    <col min="11010" max="11010" width="11.375" customWidth="1"/>
-    <col min="11266" max="11266" width="11.375" customWidth="1"/>
-    <col min="11522" max="11522" width="11.375" customWidth="1"/>
-    <col min="11778" max="11778" width="11.375" customWidth="1"/>
-    <col min="12034" max="12034" width="11.375" customWidth="1"/>
-    <col min="12290" max="12290" width="11.375" customWidth="1"/>
-    <col min="12546" max="12546" width="11.375" customWidth="1"/>
-    <col min="12802" max="12802" width="11.375" customWidth="1"/>
-    <col min="13058" max="13058" width="11.375" customWidth="1"/>
-    <col min="13314" max="13314" width="11.375" customWidth="1"/>
-    <col min="13570" max="13570" width="11.375" customWidth="1"/>
-    <col min="13826" max="13826" width="11.375" customWidth="1"/>
-    <col min="14082" max="14082" width="11.375" customWidth="1"/>
-    <col min="14338" max="14338" width="11.375" customWidth="1"/>
-    <col min="14594" max="14594" width="11.375" customWidth="1"/>
-    <col min="14850" max="14850" width="11.375" customWidth="1"/>
-    <col min="15106" max="15106" width="11.375" customWidth="1"/>
-    <col min="15362" max="15362" width="11.375" customWidth="1"/>
-    <col min="15618" max="15618" width="11.375" customWidth="1"/>
-    <col min="15874" max="15874" width="11.375" customWidth="1"/>
-    <col min="16130" max="16130" width="11.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="20.25">
-      <c r="A1" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="20.25">
-      <c r="A2" s="20"/>
-      <c r="B2" s="21"/>
-      <c r="D2" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="18.75">
-      <c r="B3" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="24"/>
-      <c r="G3" s="25"/>
-    </row>
-    <row r="4" spans="1:12" ht="15.75">
-      <c r="B4" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="24"/>
-      <c r="G4" s="25"/>
-    </row>
-    <row r="5" spans="1:12" ht="15.75">
-      <c r="B5" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="15.75">
-      <c r="B6" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="27">
-        <v>1</v>
-      </c>
-      <c r="G6" s="24"/>
-    </row>
-    <row r="7" spans="1:12" ht="15.75">
-      <c r="B7" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="24"/>
-    </row>
-    <row r="8" spans="1:12" ht="15.75">
-      <c r="A8" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="24"/>
-      <c r="G8" s="24"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="B9" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="L9" s="29" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="B10" s="30" t="s">
-        <v>517</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="30">
-        <v>40</v>
-      </c>
-      <c r="F10" s="30"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="I10" s="30"/>
-      <c r="J10" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="K10" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="L10" s="33"/>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="B11" s="30" t="s">
-        <v>384</v>
-      </c>
-      <c r="C11" s="33" t="s">
-        <v>518</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="30">
-        <v>40</v>
-      </c>
-      <c r="F11" s="30"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="I11" s="30"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="B12" s="30" t="s">
-        <v>516</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>519</v>
-      </c>
-      <c r="D12" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="30">
-        <v>40</v>
-      </c>
-      <c r="F12" s="30"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="I12" s="33"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33"/>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="B13" s="30"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="B14" s="30"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="33"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="B15" s="30"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="33"/>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="B16" s="30"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="33"/>
-    </row>
-    <row r="17" spans="2:12">
-      <c r="B17" s="30"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="33"/>
-    </row>
-    <row r="18" spans="2:12">
-      <c r="B18" s="30"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="33"/>
-    </row>
-    <row r="19" spans="2:12">
-      <c r="B19" s="30"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="33"/>
-    </row>
-    <row r="20" spans="2:12">
-      <c r="B20" s="30"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="33"/>
-    </row>
-    <row r="21" spans="2:12">
-      <c r="B21" s="34"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="33"/>
-    </row>
-    <row r="22" spans="2:12">
-      <c r="B22" s="30"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="33"/>
-    </row>
-    <row r="23" spans="2:12">
-      <c r="B23" s="34"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="33"/>
-    </row>
-    <row r="24" spans="2:12">
-      <c r="B24" s="30"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="33"/>
-    </row>
-    <row r="25" spans="2:12">
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="33"/>
-    </row>
-    <row r="26" spans="2:12">
-      <c r="B26" s="30"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="33"/>
-    </row>
-    <row r="27" spans="2:12">
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="35"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="33"/>
-    </row>
-    <row r="28" spans="2:12">
-      <c r="B28" s="30"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="33"/>
-    </row>
-    <row r="29" spans="2:12">
-      <c r="B29" s="34"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="35"/>
-      <c r="J29" s="35"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="33"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="D2" location="Index!A1" display="BACK to Index"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L35"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="19.625" customWidth="1"/>
@@ -22170,7 +23107,7 @@
         <v>28</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="20.25">
@@ -22219,7 +23156,7 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="G7" s="24"/>
     </row>
@@ -22267,13 +23204,13 @@
     </row>
     <row r="10" spans="1:12">
       <c r="B10" s="34" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E10" s="34">
         <v>40</v>
@@ -22291,18 +23228,18 @@
         <v>43</v>
       </c>
       <c r="L10" s="33" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="B11" s="34" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E11" s="34">
         <v>40</v>
@@ -22316,18 +23253,18 @@
       <c r="J11" s="33"/>
       <c r="K11" s="33"/>
       <c r="L11" s="33" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="B12" s="34" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E12" s="34">
         <v>100</v>
@@ -22339,18 +23276,18 @@
       <c r="J12" s="33"/>
       <c r="K12" s="33"/>
       <c r="L12" s="33" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="B13" s="34" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="E13" s="34"/>
       <c r="F13" s="34"/>
@@ -22360,18 +23297,18 @@
       <c r="J13" s="33"/>
       <c r="K13" s="33"/>
       <c r="L13" s="33" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="B14" s="34" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="E14" s="34">
         <v>40</v>
@@ -22383,18 +23320,18 @@
       <c r="J14" s="33"/>
       <c r="K14" s="33"/>
       <c r="L14" s="33" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="B15" s="34" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="D15" s="34" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="E15" s="34">
         <v>40</v>
@@ -22406,18 +23343,18 @@
       <c r="J15" s="33"/>
       <c r="K15" s="33"/>
       <c r="L15" s="33" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="B16" s="34" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="E16" s="34"/>
       <c r="F16" s="34"/>
@@ -22427,18 +23364,18 @@
       <c r="J16" s="33"/>
       <c r="K16" s="33"/>
       <c r="L16" s="32" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
     </row>
     <row r="17" spans="2:12">
       <c r="B17" s="34" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="D17" s="34" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="E17" s="34"/>
       <c r="F17" s="34"/>
@@ -22448,7 +23385,7 @@
       <c r="J17" s="33"/>
       <c r="K17" s="33"/>
       <c r="L17" s="32" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
     </row>
     <row r="18" spans="2:12">
@@ -22694,15 +23631,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="19.625" customWidth="1"/>
@@ -22777,7 +23714,7 @@
         <v>28</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="20.25">
@@ -22826,7 +23763,7 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="G7" s="24"/>
     </row>
@@ -22874,13 +23811,13 @@
     </row>
     <row r="10" spans="1:12">
       <c r="B10" s="34" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="E10" s="34">
         <v>40</v>
@@ -22898,18 +23835,18 @@
         <v>43</v>
       </c>
       <c r="L10" s="33" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="B11" s="34" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="E11" s="34">
         <v>40</v>
@@ -22923,18 +23860,18 @@
       <c r="J11" s="33"/>
       <c r="K11" s="33"/>
       <c r="L11" s="33" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="B12" s="34" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="E12" s="34">
         <v>500</v>
@@ -22946,18 +23883,18 @@
       <c r="J12" s="33"/>
       <c r="K12" s="33"/>
       <c r="L12" s="33" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="B13" s="34" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="E13" s="34">
         <v>40</v>
@@ -22969,7 +23906,7 @@
       <c r="J13" s="33"/>
       <c r="K13" s="33"/>
       <c r="L13" s="33" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -23267,15 +24204,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="19.625" customWidth="1"/>
@@ -23350,7 +24287,7 @@
         <v>28</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="20.25">
@@ -23399,7 +24336,7 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="G7" s="24"/>
     </row>
@@ -23447,13 +24384,13 @@
     </row>
     <row r="10" spans="1:12">
       <c r="B10" s="34" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E10" s="34">
         <v>40</v>
@@ -23471,18 +24408,18 @@
         <v>43</v>
       </c>
       <c r="L10" s="33" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="B11" s="34" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E11" s="34">
         <v>40</v>
@@ -23500,18 +24437,18 @@
         <v>43</v>
       </c>
       <c r="L11" s="33" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="B12" s="34" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E12" s="34">
         <v>40</v>
@@ -23525,18 +24462,18 @@
       <c r="J12" s="33"/>
       <c r="K12" s="33"/>
       <c r="L12" s="33" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="B13" s="34" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E13" s="34">
         <v>40</v>
@@ -23548,18 +24485,18 @@
       <c r="J13" s="33"/>
       <c r="K13" s="33"/>
       <c r="L13" s="32" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="B14" s="34" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E14" s="34">
         <v>40</v>
@@ -23571,18 +24508,18 @@
       <c r="J14" s="33"/>
       <c r="K14" s="33"/>
       <c r="L14" s="33" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="B15" s="34" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="D15" s="34" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="E15" s="34"/>
       <c r="F15" s="34"/>
@@ -23592,18 +24529,18 @@
       <c r="J15" s="33"/>
       <c r="K15" s="33"/>
       <c r="L15" s="33" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="B16" s="34" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="E16" s="34">
         <v>40</v>
@@ -23615,18 +24552,18 @@
       <c r="J16" s="33"/>
       <c r="K16" s="33"/>
       <c r="L16" s="32" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
     </row>
     <row r="17" spans="2:12">
       <c r="B17" s="34" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="D17" s="34" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="E17" s="34"/>
       <c r="F17" s="34"/>
@@ -23636,7 +24573,7 @@
       <c r="J17" s="33"/>
       <c r="K17" s="33"/>
       <c r="L17" s="32" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="18" spans="2:12">
@@ -23895,15 +24832,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="19.625" customWidth="1"/>
@@ -23978,7 +24915,7 @@
         <v>28</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="20.25">
@@ -24027,7 +24964,7 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="G7" s="24"/>
     </row>
@@ -24075,13 +25012,13 @@
     </row>
     <row r="10" spans="1:12">
       <c r="B10" s="34" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E10" s="34">
         <v>40</v>
@@ -24099,18 +25036,18 @@
         <v>43</v>
       </c>
       <c r="L10" s="33" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="B11" s="34" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E11" s="34">
         <v>40</v>
@@ -24128,18 +25065,18 @@
         <v>43</v>
       </c>
       <c r="L11" s="33" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="B12" s="34" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="E12" s="34">
         <v>500</v>
@@ -24151,18 +25088,18 @@
       <c r="J12" s="33"/>
       <c r="K12" s="33"/>
       <c r="L12" s="33" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="B13" s="34" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="E13" s="34">
         <v>40</v>
@@ -24174,7 +25111,7 @@
       <c r="J13" s="33"/>
       <c r="K13" s="33"/>
       <c r="L13" s="33" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -24482,18 +25419,19 @@
     <hyperlink ref="D2" location="Index!A1" display="BACK to Index"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10:C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="11.375" customWidth="1"/>
     <col min="12" max="12" width="54.875" customWidth="1"/>
@@ -24670,7 +25608,7 @@
         <v>70</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="E10" s="30">
         <v>40</v>
@@ -24947,14 +25885,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10:C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="11.375" customWidth="1"/>
     <col min="12" max="12" width="54.875" customWidth="1"/>
@@ -25434,14 +26372,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10:C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="11.375" customWidth="1"/>
     <col min="12" max="12" width="54.875" customWidth="1"/>
@@ -25919,14 +26857,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10:C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="11.375" customWidth="1"/>
     <col min="12" max="12" width="54.875" customWidth="1"/>
@@ -26380,14 +27318,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10:C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="12.625" customWidth="1"/>
     <col min="12" max="12" width="54.875" customWidth="1"/>

--- a/src/main/resources/db/数据库设计.xlsx
+++ b/src/main/resources/db/数据库设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="24240" windowHeight="13740" tabRatio="914" firstSheet="22" activeTab="33"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="24240" windowHeight="13740" tabRatio="914" firstSheet="2" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
     <sheet name="BBS评论表" sheetId="42" r:id="rId43"/>
     <sheet name="BBS评论附件表" sheetId="43" r:id="rId44"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2365" uniqueCount="764">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2406" uniqueCount="778">
   <si>
     <t>seq</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -3343,6 +3343,54 @@
   </si>
   <si>
     <t>研究任务名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExpStepTips</t>
+  </si>
+  <si>
+    <t>实验步骤提示信息</t>
+  </si>
+  <si>
+    <t>varcher</t>
+  </si>
+  <si>
+    <t>在实验中点击Tip显示提示信息，允许位空</t>
+  </si>
+  <si>
+    <t>ExpStepText</t>
+  </si>
+  <si>
+    <t>实验步骤简述</t>
+  </si>
+  <si>
+    <t>varchar</t>
+  </si>
+  <si>
+    <t>实验步骤的简要描述，允许位空</t>
+  </si>
+  <si>
+    <t>UpdateTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据最后更新时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DateTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备规格</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备规格</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EquipmentType</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3488,7 +3536,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3507,8 +3555,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="20">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -3789,6 +3843,58 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3797,7 +3903,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3939,6 +4045,30 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5428,7 +5558,7 @@
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:L11"/>
+      <selection activeCell="B18" sqref="B18:L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -5791,18 +5921,26 @@
         <v>466</v>
       </c>
     </row>
-    <row r="18" spans="2:12">
-      <c r="B18" s="30"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="33"/>
+    <row r="18" spans="2:12" ht="24">
+      <c r="B18" s="53" t="s">
+        <v>772</v>
+      </c>
+      <c r="C18" s="52" t="s">
+        <v>773</v>
+      </c>
+      <c r="D18" s="53" t="s">
+        <v>774</v>
+      </c>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="52" t="s">
+        <v>773</v>
+      </c>
     </row>
     <row r="19" spans="2:12">
       <c r="B19" s="30"/>
@@ -6935,7 +7073,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:L14"/>
+      <selection activeCell="B24" sqref="B24:L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -7439,17 +7577,25 @@
       </c>
     </row>
     <row r="24" spans="2:12">
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="33"/>
+      <c r="B24" s="53" t="s">
+        <v>772</v>
+      </c>
+      <c r="C24" s="52" t="s">
+        <v>773</v>
+      </c>
+      <c r="D24" s="53" t="s">
+        <v>774</v>
+      </c>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="52" t="s">
+        <v>773</v>
+      </c>
     </row>
     <row r="25" spans="2:12">
       <c r="B25" s="30"/>
@@ -7544,7 +7690,7 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B13" sqref="B13:L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -7793,17 +7939,25 @@
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="B13" s="30"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
+      <c r="B13" s="53" t="s">
+        <v>772</v>
+      </c>
+      <c r="C13" s="52" t="s">
+        <v>773</v>
+      </c>
+      <c r="D13" s="53" t="s">
+        <v>774</v>
+      </c>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="52" t="s">
+        <v>773</v>
+      </c>
     </row>
     <row r="14" spans="1:12">
       <c r="B14" s="30"/>
@@ -8053,7 +8207,7 @@
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B13" sqref="B13:L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -8302,17 +8456,25 @@
       <c r="L12" s="33"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="B13" s="30"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="33"/>
+      <c r="B13" s="53" t="s">
+        <v>772</v>
+      </c>
+      <c r="C13" s="52" t="s">
+        <v>773</v>
+      </c>
+      <c r="D13" s="53" t="s">
+        <v>774</v>
+      </c>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="52" t="s">
+        <v>773</v>
+      </c>
     </row>
     <row r="14" spans="1:12">
       <c r="B14" s="30"/>
@@ -8523,7 +8685,7 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+      <selection activeCell="B13" sqref="B13:L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -8772,17 +8934,25 @@
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="B13" s="30"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
+      <c r="B13" s="53" t="s">
+        <v>772</v>
+      </c>
+      <c r="C13" s="52" t="s">
+        <v>773</v>
+      </c>
+      <c r="D13" s="53" t="s">
+        <v>774</v>
+      </c>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="52" t="s">
+        <v>773</v>
+      </c>
     </row>
     <row r="14" spans="1:12">
       <c r="B14" s="30"/>
@@ -9031,8 +9201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -9260,30 +9430,50 @@
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="B12" s="30"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33"/>
+      <c r="B12" s="53" t="s">
+        <v>777</v>
+      </c>
+      <c r="C12" s="52" t="s">
+        <v>775</v>
+      </c>
+      <c r="D12" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="53">
+        <v>45</v>
+      </c>
+      <c r="F12" s="53"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" s="52"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="52" t="s">
+        <v>776</v>
+      </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="B13" s="30"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="33"/>
+      <c r="B13" s="53" t="s">
+        <v>772</v>
+      </c>
+      <c r="C13" s="52" t="s">
+        <v>773</v>
+      </c>
+      <c r="D13" s="53" t="s">
+        <v>774</v>
+      </c>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="52" t="s">
+        <v>773</v>
+      </c>
     </row>
     <row r="14" spans="1:12">
       <c r="B14" s="30"/>
@@ -9494,7 +9684,7 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+      <selection activeCell="B13" sqref="B13:L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -9743,17 +9933,25 @@
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="B13" s="30"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
+      <c r="B13" s="53" t="s">
+        <v>772</v>
+      </c>
+      <c r="C13" s="52" t="s">
+        <v>773</v>
+      </c>
+      <c r="D13" s="53" t="s">
+        <v>774</v>
+      </c>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="52" t="s">
+        <v>773</v>
+      </c>
     </row>
     <row r="14" spans="1:12">
       <c r="B14" s="30"/>
@@ -13800,7 +13998,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -14091,30 +14289,50 @@
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="B15" s="30"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="33"/>
+      <c r="B15" s="59" t="s">
+        <v>764</v>
+      </c>
+      <c r="C15" s="60" t="s">
+        <v>765</v>
+      </c>
+      <c r="D15" s="61" t="s">
+        <v>766</v>
+      </c>
+      <c r="E15" s="61">
+        <v>400</v>
+      </c>
+      <c r="F15" s="62"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="62"/>
+      <c r="L15" s="60" t="s">
+        <v>767</v>
+      </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="B16" s="30"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="33"/>
+      <c r="B16" s="63" t="s">
+        <v>768</v>
+      </c>
+      <c r="C16" s="64" t="s">
+        <v>769</v>
+      </c>
+      <c r="D16" s="65" t="s">
+        <v>770</v>
+      </c>
+      <c r="E16" s="65">
+        <v>200</v>
+      </c>
+      <c r="F16" s="66"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="66"/>
+      <c r="K16" s="66"/>
+      <c r="L16" s="64" t="s">
+        <v>771</v>
+      </c>
     </row>
     <row r="17" spans="2:12">
       <c r="B17" s="30"/>
@@ -18547,8 +18765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26:L28"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
